--- a/Code/Results/Cases/Case_5_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_5/res_bus/vm_pu.xlsx
@@ -421,37 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9781169674269186</v>
+        <v>1.005574570086992</v>
       </c>
       <c r="D2">
-        <v>1.000136513176488</v>
+        <v>1.020947482289559</v>
       </c>
       <c r="E2">
-        <v>0.9867895757600561</v>
+        <v>1.0169550671331</v>
       </c>
       <c r="F2">
-        <v>0.9810902636979131</v>
+        <v>1.019741749001198</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036586719451504</v>
+        <v>1.042579418947561</v>
       </c>
       <c r="J2">
-        <v>1.000972494535997</v>
+        <v>1.027589815606194</v>
       </c>
       <c r="K2">
-        <v>1.011593946481189</v>
+        <v>1.032122499779603</v>
       </c>
       <c r="L2">
-        <v>0.9984360732950429</v>
+        <v>1.028183138380025</v>
       </c>
       <c r="M2">
-        <v>0.9928194824976692</v>
-      </c>
-      <c r="N2">
-        <v>1.005704707400593</v>
+        <v>1.030932734097576</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9868011580601911</v>
+        <v>1.013641388331538</v>
       </c>
       <c r="D3">
-        <v>1.00669875839407</v>
+        <v>1.027075110790363</v>
       </c>
       <c r="E3">
-        <v>0.9940702949481955</v>
+        <v>1.024100270949228</v>
       </c>
       <c r="F3">
-        <v>0.9902466955630691</v>
+        <v>1.027682738003008</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039412083145242</v>
+        <v>1.044998485888509</v>
       </c>
       <c r="J3">
-        <v>1.007658220237986</v>
+        <v>1.033766959232699</v>
       </c>
       <c r="K3">
-        <v>1.017246638906841</v>
+        <v>1.037372895623766</v>
       </c>
       <c r="L3">
-        <v>1.004779613953556</v>
+        <v>1.034433798112661</v>
       </c>
       <c r="M3">
-        <v>1.001005911842276</v>
-      </c>
-      <c r="N3">
-        <v>1.005704707400593</v>
+        <v>1.037973253834346</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9922195466158323</v>
+        <v>1.018694454306669</v>
       </c>
       <c r="D4">
-        <v>1.010794723418766</v>
+        <v>1.030915297827318</v>
       </c>
       <c r="E4">
-        <v>0.9986194013897509</v>
+        <v>1.028582269916331</v>
       </c>
       <c r="F4">
-        <v>0.9959659300245727</v>
+        <v>1.032666006856447</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041157307385894</v>
+        <v>1.04650062537157</v>
       </c>
       <c r="J4">
-        <v>1.011824393118662</v>
+        <v>1.037631748533034</v>
       </c>
       <c r="K4">
-        <v>1.02076458831703</v>
+        <v>1.040654388526971</v>
       </c>
       <c r="L4">
-        <v>1.008734517629594</v>
+        <v>1.038347549289774</v>
       </c>
       <c r="M4">
-        <v>1.006113287798975</v>
-      </c>
-      <c r="N4">
-        <v>1.005704707400593</v>
+        <v>1.042385541153311</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9944525551448059</v>
+        <v>1.020781255672604</v>
       </c>
       <c r="D5">
-        <v>1.012482948541651</v>
+        <v>1.032501518952071</v>
       </c>
       <c r="E5">
-        <v>1.000495569263295</v>
+        <v>1.030434638261945</v>
       </c>
       <c r="F5">
-        <v>0.9983244072336158</v>
+        <v>1.034726079188909</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041872225032441</v>
+        <v>1.047117744935871</v>
       </c>
       <c r="J5">
-        <v>1.013539987813074</v>
+        <v>1.039226646964316</v>
       </c>
       <c r="K5">
-        <v>1.02221213222001</v>
+        <v>1.042007711851523</v>
       </c>
       <c r="L5">
-        <v>1.010363566730037</v>
+        <v>1.039963361993131</v>
       </c>
       <c r="M5">
-        <v>1.008217988268758</v>
-      </c>
-      <c r="N5">
-        <v>1.005704707400593</v>
+        <v>1.044208145757803</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9948249422220798</v>
+        <v>1.021129505116616</v>
       </c>
       <c r="D6">
-        <v>1.012764492889783</v>
+        <v>1.032766245342007</v>
       </c>
       <c r="E6">
-        <v>1.000808527016544</v>
+        <v>1.03074384518483</v>
       </c>
       <c r="F6">
-        <v>0.9987178053768063</v>
+        <v>1.035069989401713</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041991191512621</v>
+        <v>1.047220539078456</v>
       </c>
       <c r="J6">
-        <v>1.013826006501267</v>
+        <v>1.039492735769241</v>
       </c>
       <c r="K6">
-        <v>1.022453395420086</v>
+        <v>1.042233445171203</v>
       </c>
       <c r="L6">
-        <v>1.010635183004571</v>
+        <v>1.040232981725291</v>
       </c>
       <c r="M6">
-        <v>1.008568969372094</v>
-      </c>
-      <c r="N6">
-        <v>1.005704707400593</v>
+        <v>1.04451232883749</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9922495565514798</v>
+        <v>1.018722482615053</v>
       </c>
       <c r="D7">
-        <v>1.010817411251122</v>
+        <v>1.030936601658207</v>
       </c>
       <c r="E7">
-        <v>0.9986446102530661</v>
+        <v>1.028607144053606</v>
       </c>
       <c r="F7">
-        <v>0.9959976202810061</v>
+        <v>1.032693667949974</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041166932563862</v>
+        <v>1.046508926926475</v>
       </c>
       <c r="J7">
-        <v>1.011847454880616</v>
+        <v>1.037653174711705</v>
       </c>
       <c r="K7">
-        <v>1.02078405130718</v>
+        <v>1.040672572800621</v>
       </c>
       <c r="L7">
-        <v>1.008756414233014</v>
+        <v>1.038369253629528</v>
       </c>
       <c r="M7">
-        <v>1.00614157394174</v>
-      </c>
-      <c r="N7">
-        <v>1.005704707400593</v>
+        <v>1.04241001936244</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9810954603916131</v>
+        <v>1.008336824683314</v>
       </c>
       <c r="D8">
-        <v>1.002386795142643</v>
+        <v>1.023045246317868</v>
       </c>
       <c r="E8">
-        <v>0.9892852679658545</v>
+        <v>1.019400364473226</v>
       </c>
       <c r="F8">
-        <v>0.9842294106504202</v>
+        <v>1.022458964840885</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037559437946348</v>
+        <v>1.04341049900407</v>
       </c>
       <c r="J8">
-        <v>1.003266625967569</v>
+        <v>1.02970592667003</v>
       </c>
       <c r="K8">
-        <v>1.013534532547055</v>
+        <v>1.033921847336527</v>
       </c>
       <c r="L8">
-        <v>1.000612360212231</v>
+        <v>1.030323804589946</v>
       </c>
       <c r="M8">
-        <v>0.99562732883122</v>
-      </c>
-      <c r="N8">
-        <v>1.005704707400593</v>
+        <v>1.033343071785742</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9597374751263636</v>
+        <v>0.9886380730415072</v>
       </c>
       <c r="D9">
-        <v>0.9862649674066305</v>
+        <v>1.00809920613877</v>
       </c>
       <c r="E9">
-        <v>0.9714236210883428</v>
+        <v>1.001993360356807</v>
       </c>
       <c r="F9">
-        <v>0.9617466531189816</v>
+        <v>1.003123924969558</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03051121451551</v>
+        <v>1.037429694464812</v>
       </c>
       <c r="J9">
-        <v>0.9867967544933218</v>
+        <v>1.014598530139472</v>
       </c>
       <c r="K9">
-        <v>0.9995848873106974</v>
+        <v>1.021062232003173</v>
       </c>
       <c r="L9">
-        <v>0.9849979942093198</v>
+        <v>1.015054179256832</v>
       </c>
       <c r="M9">
-        <v>0.9754924316622328</v>
-      </c>
-      <c r="N9">
-        <v>1.005704707400593</v>
+        <v>1.016166521186037</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9440835081227452</v>
+        <v>0.9743716557940103</v>
       </c>
       <c r="D10">
-        <v>0.9744773420389032</v>
+        <v>0.9973004991459787</v>
       </c>
       <c r="E10">
-        <v>0.9583849460493613</v>
+        <v>0.9894326738246912</v>
       </c>
       <c r="F10">
-        <v>0.9453035211097962</v>
+        <v>0.9891799417186947</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025256153575402</v>
+        <v>1.033032709059549</v>
       </c>
       <c r="J10">
-        <v>0.9747057958068135</v>
+        <v>1.003640328628077</v>
       </c>
       <c r="K10">
-        <v>0.9893232307833464</v>
+        <v>1.011718665573255</v>
       </c>
       <c r="L10">
-        <v>0.9735485460221344</v>
+        <v>1.003995382316204</v>
       </c>
       <c r="M10">
-        <v>0.9607359281028803</v>
-      </c>
-      <c r="N10">
-        <v>1.005704707400593</v>
+        <v>1.003747342939705</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.93689415373709</v>
+        <v>0.967872985107769</v>
       </c>
       <c r="D11">
-        <v>0.9690742753211035</v>
+        <v>0.9923903888808526</v>
       </c>
       <c r="E11">
-        <v>0.9524124688038894</v>
+        <v>0.9837240250176746</v>
       </c>
       <c r="F11">
-        <v>0.9377601110337358</v>
+        <v>0.9828438129472752</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02282336125335</v>
+        <v>1.031015633946481</v>
       </c>
       <c r="J11">
-        <v>0.9691501064461681</v>
+        <v>0.9986461726179527</v>
       </c>
       <c r="K11">
-        <v>0.9846039608174206</v>
+        <v>1.007457252430599</v>
       </c>
       <c r="L11">
-        <v>0.9682913025938894</v>
+        <v>0.9989595512092779</v>
       </c>
       <c r="M11">
-        <v>0.9539596480511688</v>
-      </c>
-      <c r="N11">
-        <v>1.005704707400593</v>
+        <v>0.998096688152149</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9341540832357257</v>
+        <v>0.965405554222632</v>
       </c>
       <c r="D12">
-        <v>0.96701698712649</v>
+        <v>0.9905277287460572</v>
       </c>
       <c r="E12">
-        <v>0.9501388800888456</v>
+        <v>0.9815587152107258</v>
       </c>
       <c r="F12">
-        <v>0.9348863554117111</v>
+        <v>0.9804406120714555</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021893442205715</v>
+        <v>1.030247798468813</v>
       </c>
       <c r="J12">
-        <v>0.9670324657409765</v>
+        <v>0.996749767726344</v>
       </c>
       <c r="K12">
-        <v>0.9828045971474637</v>
+        <v>1.00583868070737</v>
       </c>
       <c r="L12">
-        <v>0.9662880209771059</v>
+        <v>0.9970479596935792</v>
       </c>
       <c r="M12">
-        <v>0.9513772122437675</v>
-      </c>
-      <c r="N12">
-        <v>1.005704707400593</v>
+        <v>0.9959523841284856</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9347451305707895</v>
+        <v>0.9659373427601529</v>
       </c>
       <c r="D13">
-        <v>0.9674606589167115</v>
+        <v>0.9909290971328305</v>
       </c>
       <c r="E13">
-        <v>0.9506291776092601</v>
+        <v>0.9820252884350266</v>
       </c>
       <c r="F13">
-        <v>0.9355061828091313</v>
+        <v>0.9809584412377722</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022094149436027</v>
+        <v>1.030413372065433</v>
       </c>
       <c r="J13">
-        <v>0.9674892575523565</v>
+        <v>0.9971584937459403</v>
       </c>
       <c r="K13">
-        <v>0.9831927568831148</v>
+        <v>1.006187543561522</v>
       </c>
       <c r="L13">
-        <v>0.9667201166318731</v>
+        <v>0.9974599298249854</v>
       </c>
       <c r="M13">
-        <v>0.951934246799253</v>
-      </c>
-      <c r="N13">
-        <v>1.005704707400593</v>
+        <v>0.9964144765691944</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9366691296551036</v>
+        <v>0.9676701520231501</v>
       </c>
       <c r="D14">
-        <v>0.9689052812942207</v>
+        <v>0.9922372358765243</v>
       </c>
       <c r="E14">
-        <v>0.9522256972445582</v>
+        <v>0.983545982426781</v>
       </c>
       <c r="F14">
-        <v>0.937524082898105</v>
+        <v>0.982646207868768</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022747046747255</v>
+        <v>1.030952554081757</v>
       </c>
       <c r="J14">
-        <v>0.9689762013863028</v>
+        <v>0.9984902835617578</v>
       </c>
       <c r="K14">
-        <v>0.984456203692852</v>
+        <v>1.007324209806879</v>
       </c>
       <c r="L14">
-        <v>0.9681267764582409</v>
+        <v>0.9988024007680885</v>
       </c>
       <c r="M14">
-        <v>0.9537475650218459</v>
-      </c>
-      <c r="N14">
-        <v>1.005704707400593</v>
+        <v>0.9979203931144672</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9378450831738444</v>
+        <v>0.968730527423177</v>
       </c>
       <c r="D15">
-        <v>0.9697885098229073</v>
+        <v>0.9930379602196777</v>
       </c>
       <c r="E15">
-        <v>0.953201858149104</v>
+        <v>0.9844768466400575</v>
       </c>
       <c r="F15">
-        <v>0.9387575933624865</v>
+        <v>0.9836793553047763</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023145750096659</v>
+        <v>1.031282244623274</v>
       </c>
       <c r="J15">
-        <v>0.9698850048421728</v>
+        <v>0.9993052362935744</v>
       </c>
       <c r="K15">
-        <v>0.9852283404353885</v>
+        <v>1.008019710401031</v>
       </c>
       <c r="L15">
-        <v>0.9689865916621202</v>
+        <v>0.9996239737233127</v>
       </c>
       <c r="M15">
-        <v>0.9548558984031252</v>
-      </c>
-      <c r="N15">
-        <v>1.005704707400593</v>
+        <v>0.9988420800297994</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,40 +953,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9445513416523669</v>
+        <v>0.9747957511538693</v>
       </c>
       <c r="D16">
-        <v>0.9748291850599267</v>
+        <v>0.9976211340600064</v>
       </c>
       <c r="E16">
-        <v>0.958773943840069</v>
+        <v>0.9898054987910739</v>
       </c>
       <c r="F16">
-        <v>0.9457945662894588</v>
+        <v>0.9895937661596803</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02541408097395</v>
+        <v>1.03316406013448</v>
       </c>
       <c r="J16">
-        <v>0.9750672819844451</v>
+        <v>1.003966203243463</v>
       </c>
       <c r="K16">
-        <v>0.9896302162849631</v>
+        <v>1.011996668434939</v>
       </c>
       <c r="L16">
-        <v>0.9738906930588378</v>
+        <v>1.004324063282836</v>
       </c>
       <c r="M16">
-        <v>0.9611769053233815</v>
-      </c>
-      <c r="N16">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.004116246444649</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +991,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9486428209259168</v>
+        <v>0.9785108253078015</v>
       </c>
       <c r="D17">
-        <v>0.9779074854482368</v>
+        <v>1.00043092991987</v>
       </c>
       <c r="E17">
-        <v>0.9621777554812384</v>
+        <v>0.9930729305185998</v>
       </c>
       <c r="F17">
-        <v>0.950089983220575</v>
+        <v>0.9932206454723655</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026793107041143</v>
+        <v>1.034313119137247</v>
       </c>
       <c r="J17">
-        <v>0.9782284085420125</v>
+        <v>1.00682060491986</v>
       </c>
       <c r="K17">
-        <v>0.9923142916419891</v>
+        <v>1.014431407590279</v>
       </c>
       <c r="L17">
-        <v>0.9768831190328745</v>
+        <v>1.00720351635944</v>
       </c>
       <c r="M17">
-        <v>0.9650336177994365</v>
-      </c>
-      <c r="N17">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.007348594718021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1029,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9509902477145714</v>
+        <v>0.9806471680933317</v>
       </c>
       <c r="D18">
-        <v>0.9796745755640357</v>
+        <v>1.002047512011106</v>
       </c>
       <c r="E18">
-        <v>0.9641320868442277</v>
+        <v>0.9949530618285901</v>
       </c>
       <c r="F18">
-        <v>0.9525551970479972</v>
+        <v>0.9953077265299851</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027582491541614</v>
+        <v>1.034972548415579</v>
       </c>
       <c r="J18">
-        <v>0.9800417926321593</v>
+        <v>1.008461780010654</v>
       </c>
       <c r="K18">
-        <v>0.9938536246121119</v>
+        <v>1.015830996078807</v>
       </c>
       <c r="L18">
-        <v>0.9786000665989227</v>
+        <v>1.008859484402959</v>
       </c>
       <c r="M18">
-        <v>0.9672464296427528</v>
-      </c>
-      <c r="N18">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.009207949278448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1067,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.951784249950224</v>
+        <v>0.9813705634706227</v>
       </c>
       <c r="D19">
-        <v>0.9802724351290996</v>
+        <v>1.002595040129841</v>
       </c>
       <c r="E19">
-        <v>0.9647933632057515</v>
+        <v>0.995589899021139</v>
       </c>
       <c r="F19">
-        <v>0.9533891724954217</v>
+        <v>0.9960146835007712</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027849183383963</v>
+        <v>1.035195610272457</v>
       </c>
       <c r="J19">
-        <v>0.9806551077701336</v>
+        <v>1.009017459654194</v>
       </c>
       <c r="K19">
-        <v>0.9943741829173823</v>
+        <v>1.016304825832346</v>
       </c>
       <c r="L19">
-        <v>0.9791808215414789</v>
+        <v>1.009420238467819</v>
       </c>
       <c r="M19">
-        <v>0.967994910878105</v>
-      </c>
-      <c r="N19">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009837650192631</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1105,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9482079367941026</v>
+        <v>0.9781154334013434</v>
       </c>
       <c r="D20">
-        <v>0.9775801898644298</v>
+        <v>1.000131799122902</v>
       </c>
       <c r="E20">
-        <v>0.9618158112481622</v>
+        <v>0.9927250541910706</v>
       </c>
       <c r="F20">
-        <v>0.9496333412575488</v>
+        <v>0.9928344877235692</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026646717420471</v>
+        <v>1.034190963646298</v>
       </c>
       <c r="J20">
-        <v>0.9778924382033705</v>
+        <v>1.006516837558346</v>
       </c>
       <c r="K20">
-        <v>0.9920290632483818</v>
+        <v>1.014172331397895</v>
       </c>
       <c r="L20">
-        <v>0.976565042918909</v>
+        <v>1.006897042441738</v>
       </c>
       <c r="M20">
-        <v>0.9646236784149839</v>
-      </c>
-      <c r="N20">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.007004515189583</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1143,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9361045523237969</v>
+        <v>0.9671614071838505</v>
       </c>
       <c r="D21">
-        <v>0.9684813144872506</v>
+        <v>0.9918531254209235</v>
       </c>
       <c r="E21">
-        <v>0.9517571385734411</v>
+        <v>0.9830994524845116</v>
       </c>
       <c r="F21">
-        <v>0.9369319169270769</v>
+        <v>0.9821506168941931</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022555533567573</v>
+        <v>1.030794306075626</v>
       </c>
       <c r="J21">
-        <v>0.9685398772545866</v>
+        <v>0.9980992806463581</v>
       </c>
       <c r="K21">
-        <v>0.9840854758505397</v>
+        <v>1.006990504279018</v>
       </c>
       <c r="L21">
-        <v>0.9677139936874896</v>
+        <v>0.9984082443321753</v>
       </c>
       <c r="M21">
-        <v>0.9532154597759518</v>
-      </c>
-      <c r="N21">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9974782299397502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1181,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9280868092597777</v>
+        <v>0.9599611925045135</v>
       </c>
       <c r="D22">
-        <v>0.9624657217116882</v>
+        <v>0.9864211276696788</v>
       </c>
       <c r="E22">
-        <v>0.945109926293869</v>
+        <v>0.9767852337030464</v>
       </c>
       <c r="F22">
-        <v>0.9285253818636111</v>
+        <v>0.9751428214480327</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019829562556917</v>
+        <v>1.028550073964034</v>
       </c>
       <c r="J22">
-        <v>0.9623432920677786</v>
+        <v>0.9925651710161699</v>
       </c>
       <c r="K22">
-        <v>0.9788193039835731</v>
+        <v>1.002266470970753</v>
       </c>
       <c r="L22">
-        <v>0.9618532531283832</v>
+        <v>0.9928310470215184</v>
       </c>
       <c r="M22">
-        <v>0.945659436331066</v>
-      </c>
-      <c r="N22">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9912233275987365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1219,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9323788564488069</v>
+        <v>0.9638098147753842</v>
       </c>
       <c r="D23">
-        <v>0.9656847295777411</v>
+        <v>0.9893236028212085</v>
       </c>
       <c r="E23">
-        <v>0.9486666814869801</v>
+        <v>0.9801590023018044</v>
       </c>
       <c r="F23">
-        <v>0.9330248705158694</v>
+        <v>0.9788871431156138</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02129023124588</v>
+        <v>1.029750681529395</v>
       </c>
       <c r="J23">
-        <v>0.9656604659620001</v>
+        <v>0.9955232845658072</v>
       </c>
       <c r="K23">
-        <v>0.9816386658452797</v>
+        <v>1.004791777129517</v>
       </c>
       <c r="L23">
-        <v>0.9649902899749604</v>
+        <v>0.9958118364118463</v>
       </c>
       <c r="M23">
-        <v>0.9497041786540937</v>
-      </c>
-      <c r="N23">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9945659645941786</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1257,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9484045623571066</v>
+        <v>0.9782941881490801</v>
       </c>
       <c r="D24">
-        <v>0.9777281681107011</v>
+        <v>1.000267032174027</v>
       </c>
       <c r="E24">
-        <v>0.9619794537899676</v>
+        <v>0.992882323649824</v>
       </c>
       <c r="F24">
-        <v>0.9498398018292443</v>
+        <v>0.9930090632438936</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026712910682113</v>
+        <v>1.034246193703113</v>
       </c>
       <c r="J24">
-        <v>0.9780443423975006</v>
+        <v>1.006654170056112</v>
       </c>
       <c r="K24">
-        <v>0.9921580264160962</v>
+        <v>1.01428946005036</v>
       </c>
       <c r="L24">
-        <v>0.9767088554439075</v>
+        <v>1.007035597357513</v>
       </c>
       <c r="M24">
-        <v>0.9648090253876603</v>
-      </c>
-      <c r="N24">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.007160070002813</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9654861937007461</v>
+        <v>0.993914778740114</v>
       </c>
       <c r="D25">
-        <v>0.9906005935015311</v>
+        <v>1.012099288369679</v>
       </c>
       <c r="E25">
-        <v>0.9762233080316429</v>
+        <v>1.006648998977824</v>
       </c>
       <c r="F25">
-        <v>0.9677921976892886</v>
+        <v>1.008293684549882</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03242386747971</v>
+        <v>1.039043281642684</v>
       </c>
       <c r="J25">
-        <v>0.991233651926097</v>
+        <v>1.018648684761215</v>
       </c>
       <c r="K25">
-        <v>1.00334659691716</v>
+        <v>1.024512637745901</v>
       </c>
       <c r="L25">
-        <v>0.9892022924282996</v>
+        <v>1.019144967263075</v>
       </c>
       <c r="M25">
-        <v>0.9809119601629954</v>
-      </c>
-      <c r="N25">
-        <v>1.005704707400593</v>
+        <v>1.020764601721206</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_5/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005574570086992</v>
+        <v>1.013767105909981</v>
       </c>
       <c r="D2">
-        <v>1.020947482289559</v>
+        <v>1.033218463394001</v>
       </c>
       <c r="E2">
-        <v>1.0169550671331</v>
+        <v>1.018299611576478</v>
       </c>
       <c r="F2">
-        <v>1.019741749001198</v>
+        <v>1.037414383201526</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042579418947561</v>
+        <v>1.049591873518619</v>
       </c>
       <c r="J2">
-        <v>1.027589815606194</v>
+        <v>1.035543700218206</v>
       </c>
       <c r="K2">
-        <v>1.032122499779603</v>
+        <v>1.04423362611322</v>
       </c>
       <c r="L2">
-        <v>1.028183138380025</v>
+        <v>1.029509757336176</v>
       </c>
       <c r="M2">
-        <v>1.030932734097576</v>
+        <v>1.048375969123195</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013641388331538</v>
+        <v>1.017791847722958</v>
       </c>
       <c r="D3">
-        <v>1.027075110790363</v>
+        <v>1.036302865475729</v>
       </c>
       <c r="E3">
-        <v>1.024100270949228</v>
+        <v>1.021493009806246</v>
       </c>
       <c r="F3">
-        <v>1.027682738003008</v>
+        <v>1.040999685419147</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044998485888509</v>
+        <v>1.050792175109317</v>
       </c>
       <c r="J3">
-        <v>1.033766959232699</v>
+        <v>1.037808966203077</v>
       </c>
       <c r="K3">
-        <v>1.037372895623766</v>
+        <v>1.046491395710307</v>
       </c>
       <c r="L3">
-        <v>1.034433798112661</v>
+        <v>1.031858075522398</v>
       </c>
       <c r="M3">
-        <v>1.037973253834346</v>
+        <v>1.05113352573205</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018694454306669</v>
+        <v>1.020348679999198</v>
       </c>
       <c r="D4">
-        <v>1.030915297827318</v>
+        <v>1.038265370321749</v>
       </c>
       <c r="E4">
-        <v>1.028582269916331</v>
+        <v>1.023527374479641</v>
       </c>
       <c r="F4">
-        <v>1.032666006856447</v>
+        <v>1.043282270098423</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04650062537157</v>
+        <v>1.051546981188842</v>
       </c>
       <c r="J4">
-        <v>1.037631748533034</v>
+        <v>1.039245808575785</v>
       </c>
       <c r="K4">
-        <v>1.040654388526971</v>
+        <v>1.047922900709649</v>
       </c>
       <c r="L4">
-        <v>1.038347549289774</v>
+        <v>1.033349901104243</v>
       </c>
       <c r="M4">
-        <v>1.042385541153311</v>
+        <v>1.052884940217976</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020781255672604</v>
+        <v>1.021412569553922</v>
       </c>
       <c r="D5">
-        <v>1.032501518952071</v>
+        <v>1.039082653101139</v>
       </c>
       <c r="E5">
-        <v>1.030434638261945</v>
+        <v>1.024375191080574</v>
       </c>
       <c r="F5">
-        <v>1.034726079188909</v>
+        <v>1.044233190314519</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047117744935871</v>
+        <v>1.051859170368452</v>
       </c>
       <c r="J5">
-        <v>1.039226646964316</v>
+        <v>1.03984311000136</v>
       </c>
       <c r="K5">
-        <v>1.042007711851523</v>
+        <v>1.048517837342539</v>
       </c>
       <c r="L5">
-        <v>1.039963361993131</v>
+        <v>1.033970612388137</v>
       </c>
       <c r="M5">
-        <v>1.044208145757803</v>
+        <v>1.053613565595754</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021129505116616</v>
+        <v>1.021590566142806</v>
       </c>
       <c r="D6">
-        <v>1.032766245342007</v>
+        <v>1.039219429996217</v>
       </c>
       <c r="E6">
-        <v>1.03074384518483</v>
+        <v>1.024517113879961</v>
       </c>
       <c r="F6">
-        <v>1.035069989401713</v>
+        <v>1.04439235252581</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047220539078456</v>
+        <v>1.051911290350888</v>
       </c>
       <c r="J6">
-        <v>1.039492735769241</v>
+        <v>1.039943008985149</v>
       </c>
       <c r="K6">
-        <v>1.042233445171203</v>
+        <v>1.048617332049271</v>
       </c>
       <c r="L6">
-        <v>1.040232981725291</v>
+        <v>1.034074459211944</v>
       </c>
       <c r="M6">
-        <v>1.04451232883749</v>
+        <v>1.053735461195291</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018722482615053</v>
+        <v>1.020362938516114</v>
       </c>
       <c r="D7">
-        <v>1.030936601658207</v>
+        <v>1.038276321077317</v>
       </c>
       <c r="E7">
-        <v>1.028607144053606</v>
+        <v>1.023538731950183</v>
       </c>
       <c r="F7">
-        <v>1.032693667949974</v>
+        <v>1.043295010100556</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046508926926475</v>
+        <v>1.051551172703049</v>
       </c>
       <c r="J7">
-        <v>1.037653174711705</v>
+        <v>1.039253816024305</v>
       </c>
       <c r="K7">
-        <v>1.040672572800621</v>
+        <v>1.047930877040638</v>
       </c>
       <c r="L7">
-        <v>1.038369253629528</v>
+        <v>1.033358220200935</v>
       </c>
       <c r="M7">
-        <v>1.04241001936244</v>
+        <v>1.052894706009336</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008336824683314</v>
+        <v>1.015137329091236</v>
       </c>
       <c r="D8">
-        <v>1.023045246317868</v>
+        <v>1.034267883916666</v>
       </c>
       <c r="E8">
-        <v>1.019400364473226</v>
+        <v>1.019385595140204</v>
       </c>
       <c r="F8">
-        <v>1.022458964840885</v>
+        <v>1.038633946854</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04341049900407</v>
+        <v>1.050002113491453</v>
       </c>
       <c r="J8">
-        <v>1.02970592667003</v>
+        <v>1.036315359909931</v>
       </c>
       <c r="K8">
-        <v>1.033921847336527</v>
+        <v>1.045002850391363</v>
       </c>
       <c r="L8">
-        <v>1.030323804589946</v>
+        <v>1.03030922590482</v>
       </c>
       <c r="M8">
-        <v>1.033343071785742</v>
+        <v>1.049314841097402</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9886380730415072</v>
+        <v>1.005548993698885</v>
       </c>
       <c r="D9">
-        <v>1.00809920613877</v>
+        <v>1.026939042894</v>
       </c>
       <c r="E9">
-        <v>1.001993360356807</v>
+        <v>1.011811743046678</v>
       </c>
       <c r="F9">
-        <v>1.003123924969558</v>
+        <v>1.030122206837324</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037429694464812</v>
+        <v>1.047100060291608</v>
       </c>
       <c r="J9">
-        <v>1.014598530139472</v>
+        <v>1.030907312975696</v>
       </c>
       <c r="K9">
-        <v>1.021062232003173</v>
+        <v>1.039609666178587</v>
       </c>
       <c r="L9">
-        <v>1.015054179256832</v>
+        <v>1.024716046287973</v>
       </c>
       <c r="M9">
-        <v>1.016166521186037</v>
+        <v>1.042744770827984</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9743716557940103</v>
+        <v>0.9988764623307994</v>
       </c>
       <c r="D10">
-        <v>0.9973004991459787</v>
+        <v>1.021859462701963</v>
       </c>
       <c r="E10">
-        <v>0.9894326738246912</v>
+        <v>1.006575187246578</v>
       </c>
       <c r="F10">
-        <v>0.9891799417186947</v>
+        <v>1.024229015567169</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033032709059549</v>
+        <v>1.045042184363103</v>
       </c>
       <c r="J10">
-        <v>1.003640328628077</v>
+        <v>1.027134728229088</v>
       </c>
       <c r="K10">
-        <v>1.011718665573255</v>
+        <v>1.035844944232732</v>
       </c>
       <c r="L10">
-        <v>1.003995382316204</v>
+        <v>1.020826730880369</v>
       </c>
       <c r="M10">
-        <v>1.003747342939705</v>
+        <v>1.038174166711789</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.967872985107769</v>
+        <v>0.9959147909801774</v>
       </c>
       <c r="D11">
-        <v>0.9923903888808526</v>
+        <v>1.019610393276344</v>
       </c>
       <c r="E11">
-        <v>0.9837240250176746</v>
+        <v>1.004259576786943</v>
       </c>
       <c r="F11">
-        <v>0.9828438129472752</v>
+        <v>1.021621022720925</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031015633946481</v>
+        <v>1.04412015399042</v>
       </c>
       <c r="J11">
-        <v>0.9986461726179527</v>
+        <v>1.02545851253112</v>
       </c>
       <c r="K11">
-        <v>1.007457252430599</v>
+        <v>1.034171725695957</v>
       </c>
       <c r="L11">
-        <v>0.9989595512092779</v>
+        <v>1.019101608329144</v>
       </c>
       <c r="M11">
-        <v>0.998096688152149</v>
+        <v>1.03614640068067</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.965405554222632</v>
+        <v>0.994803276304188</v>
       </c>
       <c r="D12">
-        <v>0.9905277287460572</v>
+        <v>1.018767212457468</v>
       </c>
       <c r="E12">
-        <v>0.9815587152107258</v>
+        <v>1.00339188756002</v>
       </c>
       <c r="F12">
-        <v>0.9804406120714555</v>
+        <v>1.020643464181958</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030247798468813</v>
+        <v>1.043772862359626</v>
       </c>
       <c r="J12">
-        <v>0.996749767726344</v>
+        <v>1.024829210898754</v>
       </c>
       <c r="K12">
-        <v>1.00583868070737</v>
+        <v>1.033543483318337</v>
       </c>
       <c r="L12">
-        <v>0.9970479596935792</v>
+        <v>1.018454391595733</v>
       </c>
       <c r="M12">
-        <v>0.9959523841284856</v>
+        <v>1.03538557405509</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9659373427601529</v>
+        <v>0.9950422256593048</v>
       </c>
       <c r="D13">
-        <v>0.9909290971328305</v>
+        <v>1.018948434969365</v>
       </c>
       <c r="E13">
-        <v>0.9820252884350266</v>
+        <v>1.003578357917671</v>
       </c>
       <c r="F13">
-        <v>0.9809584412377722</v>
+        <v>1.020853560068956</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030413372065433</v>
+        <v>1.043847577821769</v>
       </c>
       <c r="J13">
-        <v>0.9971584937459403</v>
+        <v>1.024964505070023</v>
       </c>
       <c r="K13">
-        <v>1.006187543561522</v>
+        <v>1.033678552598762</v>
       </c>
       <c r="L13">
-        <v>0.9974599298249854</v>
+        <v>1.01859351717039</v>
       </c>
       <c r="M13">
-        <v>0.9964144765691944</v>
+        <v>1.035549124174404</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9676701520231501</v>
+        <v>0.9958231489789406</v>
       </c>
       <c r="D14">
-        <v>0.9922372358765243</v>
+        <v>1.019540856282094</v>
       </c>
       <c r="E14">
-        <v>0.983545982426781</v>
+        <v>1.004188009720908</v>
       </c>
       <c r="F14">
-        <v>0.982646207868768</v>
+        <v>1.021540399969701</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030952554081757</v>
+        <v>1.044091545791931</v>
       </c>
       <c r="J14">
-        <v>0.9984902835617578</v>
+        <v>1.025406632165333</v>
       </c>
       <c r="K14">
-        <v>1.007324209806879</v>
+        <v>1.034119933946938</v>
       </c>
       <c r="L14">
-        <v>0.9988024007680885</v>
+        <v>1.019048241943237</v>
       </c>
       <c r="M14">
-        <v>0.9979203931144672</v>
+        <v>1.036083667914532</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.968730527423177</v>
+        <v>0.9963027719757149</v>
       </c>
       <c r="D15">
-        <v>0.9930379602196777</v>
+        <v>1.019904826051358</v>
       </c>
       <c r="E15">
-        <v>0.9844768466400575</v>
+        <v>1.004562623096114</v>
       </c>
       <c r="F15">
-        <v>0.9836793553047763</v>
+        <v>1.021962402083201</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031282244623274</v>
+        <v>1.044241220466528</v>
       </c>
       <c r="J15">
-        <v>0.9993052362935744</v>
+        <v>1.025678147655029</v>
       </c>
       <c r="K15">
-        <v>1.008019710401031</v>
+        <v>1.034390983023374</v>
       </c>
       <c r="L15">
-        <v>0.9996239737233127</v>
+        <v>1.019327552704602</v>
       </c>
       <c r="M15">
-        <v>0.9988420800297994</v>
+        <v>1.036411998037267</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9747957511538693</v>
+        <v>0.9990714477192172</v>
       </c>
       <c r="D16">
-        <v>0.9976211340600064</v>
+        <v>1.022007653928269</v>
       </c>
       <c r="E16">
-        <v>0.9898054987910739</v>
+        <v>1.006727824129626</v>
       </c>
       <c r="F16">
-        <v>0.9895937661596803</v>
+        <v>1.024400882549029</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03316406013448</v>
+        <v>1.045102711018757</v>
       </c>
       <c r="J16">
-        <v>1.003966203243463</v>
+        <v>1.02724505153556</v>
       </c>
       <c r="K16">
-        <v>1.011996668434939</v>
+        <v>1.035955060643591</v>
       </c>
       <c r="L16">
-        <v>1.004324063282836</v>
+        <v>1.020940334902156</v>
       </c>
       <c r="M16">
-        <v>1.004116246444649</v>
+        <v>1.038307691273435</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9785108253078015</v>
+        <v>1.000788406180025</v>
       </c>
       <c r="D17">
-        <v>1.00043092991987</v>
+        <v>1.023313203294249</v>
       </c>
       <c r="E17">
-        <v>0.9930729305185998</v>
+        <v>1.008072876661154</v>
       </c>
       <c r="F17">
-        <v>0.9932206454723655</v>
+        <v>1.02591516145715</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034313119137247</v>
+        <v>1.045634704932442</v>
       </c>
       <c r="J17">
-        <v>1.00682060491986</v>
+        <v>1.028216320779214</v>
       </c>
       <c r="K17">
-        <v>1.014431407590279</v>
+        <v>1.036924452857806</v>
       </c>
       <c r="L17">
-        <v>1.00720351635944</v>
+        <v>1.021940824365945</v>
       </c>
       <c r="M17">
-        <v>1.007348594718021</v>
+        <v>1.039483565507217</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9806471680933317</v>
+        <v>1.001782929380305</v>
       </c>
       <c r="D18">
-        <v>1.002047512011106</v>
+        <v>1.024069947720223</v>
       </c>
       <c r="E18">
-        <v>0.9949530618285901</v>
+        <v>1.008852801123653</v>
       </c>
       <c r="F18">
-        <v>0.9953077265299851</v>
+        <v>1.026793019520976</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034972548415579</v>
+        <v>1.045942032251268</v>
       </c>
       <c r="J18">
-        <v>1.008461780010654</v>
+        <v>1.028778748594972</v>
       </c>
       <c r="K18">
-        <v>1.015830996078807</v>
+        <v>1.037485746002716</v>
       </c>
       <c r="L18">
-        <v>1.008859484402959</v>
+        <v>1.022520453554379</v>
       </c>
       <c r="M18">
-        <v>1.009207949278448</v>
+        <v>1.040164759704538</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9813705634706227</v>
+        <v>1.002120873111618</v>
       </c>
       <c r="D19">
-        <v>1.002595040129841</v>
+        <v>1.024327180212872</v>
       </c>
       <c r="E19">
-        <v>0.995589899021139</v>
+        <v>1.0091179611102</v>
       </c>
       <c r="F19">
-        <v>0.9960146835007712</v>
+        <v>1.027091442800952</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035195610272457</v>
+        <v>1.046046322825155</v>
       </c>
       <c r="J19">
-        <v>1.009017459654194</v>
+        <v>1.028969834978892</v>
       </c>
       <c r="K19">
-        <v>1.016304825832346</v>
+        <v>1.037676438527756</v>
       </c>
       <c r="L19">
-        <v>1.009420238467819</v>
+        <v>1.022717431770057</v>
       </c>
       <c r="M19">
-        <v>1.009837650192631</v>
+        <v>1.040396245846255</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9781154334013434</v>
+        <v>1.000604915400608</v>
       </c>
       <c r="D20">
-        <v>1.000131799122902</v>
+        <v>1.023173624906977</v>
       </c>
       <c r="E20">
-        <v>0.9927250541910706</v>
+        <v>1.007929045680981</v>
       </c>
       <c r="F20">
-        <v>0.9928344877235692</v>
+        <v>1.025753254462121</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034190963646298</v>
+        <v>1.045577935924067</v>
       </c>
       <c r="J20">
-        <v>1.006516837558346</v>
+        <v>1.028112538472661</v>
       </c>
       <c r="K20">
-        <v>1.014172331397895</v>
+        <v>1.036820876008529</v>
       </c>
       <c r="L20">
-        <v>1.006897042441738</v>
+        <v>1.021833890659104</v>
       </c>
       <c r="M20">
-        <v>1.007004515189583</v>
+        <v>1.039357890920451</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9671614071838505</v>
+        <v>0.9955935062016076</v>
       </c>
       <c r="D21">
-        <v>0.9918531254209235</v>
+        <v>1.019366620361803</v>
       </c>
       <c r="E21">
-        <v>0.9830994524845116</v>
+        <v>1.004008694169898</v>
       </c>
       <c r="F21">
-        <v>0.9821506168941931</v>
+        <v>1.021338389841497</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030794306075626</v>
+        <v>1.044019837356274</v>
       </c>
       <c r="J21">
-        <v>0.9980992806463581</v>
+        <v>1.025276623426946</v>
       </c>
       <c r="K21">
-        <v>1.006990504279018</v>
+        <v>1.033990146243165</v>
       </c>
       <c r="L21">
-        <v>0.9984082443321753</v>
+        <v>1.018914516529609</v>
       </c>
       <c r="M21">
-        <v>0.9974782299397502</v>
+        <v>1.035926471169754</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9599611925045135</v>
+        <v>0.9923762825039745</v>
       </c>
       <c r="D22">
-        <v>0.9864211276696788</v>
+        <v>1.016927838102202</v>
       </c>
       <c r="E22">
-        <v>0.9767852337030464</v>
+        <v>1.001499845238443</v>
       </c>
       <c r="F22">
-        <v>0.9751428214480327</v>
+        <v>1.018511269484123</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028550073964034</v>
+        <v>1.043012293529921</v>
       </c>
       <c r="J22">
-        <v>0.9925651710161699</v>
+        <v>1.023454773792225</v>
       </c>
       <c r="K22">
-        <v>1.002266470970753</v>
+        <v>1.032171248223828</v>
       </c>
       <c r="L22">
-        <v>0.9928310470215184</v>
+        <v>1.017041648341429</v>
       </c>
       <c r="M22">
-        <v>0.9912233275987365</v>
+        <v>1.03372472281731</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9638098147753842</v>
+        <v>0.9940882712052113</v>
       </c>
       <c r="D23">
-        <v>0.9893236028212085</v>
+        <v>1.01822507847527</v>
       </c>
       <c r="E23">
-        <v>0.9801590023018044</v>
+        <v>1.002834118063213</v>
       </c>
       <c r="F23">
-        <v>0.9788871431156138</v>
+        <v>1.020014980158893</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029750681529395</v>
+        <v>1.043549111781323</v>
       </c>
       <c r="J23">
-        <v>0.9955232845658072</v>
+        <v>1.024424343024351</v>
       </c>
       <c r="K23">
-        <v>1.004791777129517</v>
+        <v>1.033139279442509</v>
       </c>
       <c r="L23">
-        <v>0.9958118364118463</v>
+        <v>1.018038123732857</v>
       </c>
       <c r="M23">
-        <v>0.9945659645941786</v>
+        <v>1.034896217591301</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9782941881490801</v>
+        <v>1.000687848423195</v>
       </c>
       <c r="D24">
-        <v>1.000267032174027</v>
+        <v>1.023236709059967</v>
       </c>
       <c r="E24">
-        <v>0.992882323649824</v>
+        <v>1.007994050969143</v>
       </c>
       <c r="F24">
-        <v>0.9930090632438936</v>
+        <v>1.025826429908989</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034246193703113</v>
+        <v>1.045603596579904</v>
       </c>
       <c r="J24">
-        <v>1.006654170056112</v>
+        <v>1.028159445871588</v>
       </c>
       <c r="K24">
-        <v>1.01428946005036</v>
+        <v>1.036867690693793</v>
       </c>
       <c r="L24">
-        <v>1.007035597357513</v>
+        <v>1.021882221553215</v>
       </c>
       <c r="M24">
-        <v>1.007160070002813</v>
+        <v>1.039414692276331</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.993914778740114</v>
+        <v>1.008075316902741</v>
       </c>
       <c r="D25">
-        <v>1.012099288369679</v>
+        <v>1.028866698348525</v>
       </c>
       <c r="E25">
-        <v>1.006648998977824</v>
+        <v>1.013801592287431</v>
       </c>
       <c r="F25">
-        <v>1.008293684549882</v>
+        <v>1.032359856667247</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039043281642684</v>
+        <v>1.047871464289025</v>
       </c>
       <c r="J25">
-        <v>1.018648684761215</v>
+        <v>1.032333937450301</v>
       </c>
       <c r="K25">
-        <v>1.024512637745901</v>
+        <v>1.041032833543963</v>
       </c>
       <c r="L25">
-        <v>1.019144967263075</v>
+        <v>1.026189368768803</v>
       </c>
       <c r="M25">
-        <v>1.020764601721206</v>
+        <v>1.044475769404062</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_5/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.013767105909981</v>
+        <v>1.038927444142529</v>
       </c>
       <c r="D2">
-        <v>1.033218463394001</v>
+        <v>1.047616587205179</v>
       </c>
       <c r="E2">
-        <v>1.018299611576478</v>
+        <v>1.03752478985291</v>
       </c>
       <c r="F2">
-        <v>1.037414383201526</v>
+        <v>1.056188527193665</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049591873518619</v>
+        <v>1.042043491777227</v>
       </c>
       <c r="J2">
-        <v>1.035543700218206</v>
+        <v>1.044022227579138</v>
       </c>
       <c r="K2">
-        <v>1.04423362611322</v>
+        <v>1.050378726037938</v>
       </c>
       <c r="L2">
-        <v>1.029509757336176</v>
+        <v>1.040315426889857</v>
       </c>
       <c r="M2">
-        <v>1.048375969123195</v>
+        <v>1.058926923289173</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.017791847722958</v>
+        <v>1.039787584377955</v>
       </c>
       <c r="D3">
-        <v>1.036302865475729</v>
+        <v>1.048301733414593</v>
       </c>
       <c r="E3">
-        <v>1.021493009806246</v>
+        <v>1.03825420163419</v>
       </c>
       <c r="F3">
-        <v>1.040999685419147</v>
+        <v>1.057004621183756</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050792175109317</v>
+        <v>1.042256228456884</v>
       </c>
       <c r="J3">
-        <v>1.037808966203077</v>
+        <v>1.04452781047057</v>
       </c>
       <c r="K3">
-        <v>1.046491395710307</v>
+        <v>1.05087608095883</v>
       </c>
       <c r="L3">
-        <v>1.031858075522398</v>
+        <v>1.040854877054477</v>
       </c>
       <c r="M3">
-        <v>1.05113352573205</v>
+        <v>1.059556600591692</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.020348679999198</v>
+        <v>1.040344838241483</v>
       </c>
       <c r="D4">
-        <v>1.038265370321749</v>
+        <v>1.048745672616952</v>
       </c>
       <c r="E4">
-        <v>1.023527374479641</v>
+        <v>1.038727138843579</v>
       </c>
       <c r="F4">
-        <v>1.043282270098423</v>
+        <v>1.057533635725298</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051546981188842</v>
+        <v>1.042393072671594</v>
       </c>
       <c r="J4">
-        <v>1.039245808575785</v>
+        <v>1.044854980474361</v>
       </c>
       <c r="K4">
-        <v>1.047922900709649</v>
+        <v>1.051197826453084</v>
       </c>
       <c r="L4">
-        <v>1.033349901104243</v>
+        <v>1.041204226393943</v>
       </c>
       <c r="M4">
-        <v>1.052884940217976</v>
+        <v>1.059964336641698</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.021412569553922</v>
+        <v>1.040579270305734</v>
       </c>
       <c r="D5">
-        <v>1.039082653101139</v>
+        <v>1.048932447431524</v>
       </c>
       <c r="E5">
-        <v>1.024375191080574</v>
+        <v>1.03892618944282</v>
       </c>
       <c r="F5">
-        <v>1.044233190314519</v>
+        <v>1.057756258273463</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051859170368452</v>
+        <v>1.042450407178453</v>
       </c>
       <c r="J5">
-        <v>1.03984311000136</v>
+        <v>1.044992527229103</v>
       </c>
       <c r="K5">
-        <v>1.048517837342539</v>
+        <v>1.05133306863562</v>
       </c>
       <c r="L5">
-        <v>1.033970612388137</v>
+        <v>1.041351160674433</v>
       </c>
       <c r="M5">
-        <v>1.053613565595754</v>
+        <v>1.06013581737374</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.021590566142806</v>
+        <v>1.040618641965935</v>
       </c>
       <c r="D6">
-        <v>1.039219429996217</v>
+        <v>1.048963816065456</v>
       </c>
       <c r="E6">
-        <v>1.024517113879961</v>
+        <v>1.038959624220237</v>
       </c>
       <c r="F6">
-        <v>1.04439235252581</v>
+        <v>1.057793650707587</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051911290350888</v>
+        <v>1.042460022449987</v>
       </c>
       <c r="J6">
-        <v>1.039943008985149</v>
+        <v>1.045015622160384</v>
       </c>
       <c r="K6">
-        <v>1.048617332049271</v>
+        <v>1.051355775203685</v>
       </c>
       <c r="L6">
-        <v>1.034074459211944</v>
+        <v>1.041375835523683</v>
       </c>
       <c r="M6">
-        <v>1.053735461195291</v>
+        <v>1.060164613713851</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.020362938516114</v>
+        <v>1.040347970097522</v>
       </c>
       <c r="D7">
-        <v>1.038276321077317</v>
+        <v>1.048748167752391</v>
       </c>
       <c r="E7">
-        <v>1.023538731950183</v>
+        <v>1.038729797674598</v>
       </c>
       <c r="F7">
-        <v>1.043295010100556</v>
+        <v>1.057536609537641</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051551172703049</v>
+        <v>1.042393839544426</v>
       </c>
       <c r="J7">
-        <v>1.039253816024305</v>
+        <v>1.044856818364805</v>
       </c>
       <c r="K7">
-        <v>1.047930877040638</v>
+        <v>1.051199633644523</v>
       </c>
       <c r="L7">
-        <v>1.033358220200935</v>
+        <v>1.041206189472232</v>
       </c>
       <c r="M7">
-        <v>1.052894706009336</v>
+        <v>1.059966627708473</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.015137329091236</v>
+        <v>1.039217989639331</v>
       </c>
       <c r="D8">
-        <v>1.034267883916666</v>
+        <v>1.04784800948885</v>
       </c>
       <c r="E8">
-        <v>1.019385595140204</v>
+        <v>1.037771098331759</v>
       </c>
       <c r="F8">
-        <v>1.038633946854</v>
+        <v>1.056464132710305</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050002113491453</v>
+        <v>1.042115554542539</v>
       </c>
       <c r="J8">
-        <v>1.036315359909931</v>
+        <v>1.044193085933898</v>
       </c>
       <c r="K8">
-        <v>1.045002850391363</v>
+        <v>1.050546824478412</v>
       </c>
       <c r="L8">
-        <v>1.03030922590482</v>
+        <v>1.040497675932354</v>
       </c>
       <c r="M8">
-        <v>1.049314841097402</v>
+        <v>1.059139664117746</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.005548993698885</v>
+        <v>1.037232141463659</v>
       </c>
       <c r="D9">
-        <v>1.026939042894</v>
+        <v>1.046266518410762</v>
       </c>
       <c r="E9">
-        <v>1.011811743046678</v>
+        <v>1.036089171781896</v>
       </c>
       <c r="F9">
-        <v>1.030122206837324</v>
+        <v>1.054581630431146</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047100060291608</v>
+        <v>1.041619004688498</v>
       </c>
       <c r="J9">
-        <v>1.030907312975696</v>
+        <v>1.043023745370418</v>
       </c>
       <c r="K9">
-        <v>1.039609666178587</v>
+        <v>1.049395965223944</v>
       </c>
       <c r="L9">
-        <v>1.024716046287973</v>
+        <v>1.039251458697216</v>
       </c>
       <c r="M9">
-        <v>1.042744770827984</v>
+        <v>1.057684760637538</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9988764623307994</v>
+        <v>1.035911915938126</v>
       </c>
       <c r="D10">
-        <v>1.021859462701963</v>
+        <v>1.045215458859367</v>
       </c>
       <c r="E10">
-        <v>1.006575187246578</v>
+        <v>1.034972986069888</v>
       </c>
       <c r="F10">
-        <v>1.024229015567169</v>
+        <v>1.053331677643743</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045042184363103</v>
+        <v>1.041283862718402</v>
       </c>
       <c r="J10">
-        <v>1.027134728229088</v>
+        <v>1.042244423016686</v>
       </c>
       <c r="K10">
-        <v>1.035844944232732</v>
+        <v>1.048628451605641</v>
       </c>
       <c r="L10">
-        <v>1.020826730880369</v>
+        <v>1.038422258061563</v>
       </c>
       <c r="M10">
-        <v>1.038174166711789</v>
+        <v>1.056716473988286</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9959147909801774</v>
+        <v>1.035341134963285</v>
       </c>
       <c r="D11">
-        <v>1.019610393276344</v>
+        <v>1.044761135949633</v>
       </c>
       <c r="E11">
-        <v>1.004259576786943</v>
+        <v>1.034490897304001</v>
       </c>
       <c r="F11">
-        <v>1.021621022720925</v>
+        <v>1.052791655963897</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04412015399042</v>
+        <v>1.041137777226265</v>
       </c>
       <c r="J11">
-        <v>1.02545851253112</v>
+        <v>1.041907040342505</v>
       </c>
       <c r="K11">
-        <v>1.034171725695957</v>
+        <v>1.048296061516011</v>
       </c>
       <c r="L11">
-        <v>1.019101608329144</v>
+        <v>1.038063604384843</v>
       </c>
       <c r="M11">
-        <v>1.03614640068067</v>
+        <v>1.05629760625874</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.994803276304188</v>
+        <v>1.035129256117222</v>
       </c>
       <c r="D12">
-        <v>1.018767212457468</v>
+        <v>1.044592501117123</v>
       </c>
       <c r="E12">
-        <v>1.00339188756002</v>
+        <v>1.034312014254795</v>
       </c>
       <c r="F12">
-        <v>1.020643464181958</v>
+        <v>1.052591252536392</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043772862359626</v>
+        <v>1.04108337004742</v>
       </c>
       <c r="J12">
-        <v>1.024829210898754</v>
+        <v>1.041781733058564</v>
       </c>
       <c r="K12">
-        <v>1.033543483318337</v>
+        <v>1.048172590630502</v>
       </c>
       <c r="L12">
-        <v>1.018454391595733</v>
+        <v>1.037930445279824</v>
       </c>
       <c r="M12">
-        <v>1.03538557405509</v>
+        <v>1.056142082857525</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9950422256593048</v>
+        <v>1.035174698731244</v>
       </c>
       <c r="D13">
-        <v>1.018948434969365</v>
+        <v>1.044628668359924</v>
       </c>
       <c r="E13">
-        <v>1.003578357917671</v>
+        <v>1.034350376821384</v>
       </c>
       <c r="F13">
-        <v>1.020853560068956</v>
+        <v>1.052634231363757</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043847577821769</v>
+        <v>1.041095047100193</v>
       </c>
       <c r="J13">
-        <v>1.024964505070023</v>
+        <v>1.041808611347836</v>
       </c>
       <c r="K13">
-        <v>1.033678552598762</v>
+        <v>1.048199075822803</v>
       </c>
       <c r="L13">
-        <v>1.01859351717039</v>
+        <v>1.037959005584362</v>
       </c>
       <c r="M13">
-        <v>1.035549124174404</v>
+        <v>1.056175440290797</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9958231489789406</v>
+        <v>1.035323618236243</v>
       </c>
       <c r="D14">
-        <v>1.019540856282094</v>
+        <v>1.044747194064455</v>
       </c>
       <c r="E14">
-        <v>1.004188009720908</v>
+        <v>1.034476106966637</v>
       </c>
       <c r="F14">
-        <v>1.021540399969701</v>
+        <v>1.052775086775541</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044091545791931</v>
+        <v>1.041133282855881</v>
       </c>
       <c r="J14">
-        <v>1.025406632165333</v>
+        <v>1.041896682157937</v>
       </c>
       <c r="K14">
-        <v>1.034119933946938</v>
+        <v>1.04828585549698</v>
       </c>
       <c r="L14">
-        <v>1.019048241943237</v>
+        <v>1.03805259616251</v>
       </c>
       <c r="M14">
-        <v>1.036083667914532</v>
+        <v>1.056284749357027</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9963027719757149</v>
+        <v>1.035415390344962</v>
       </c>
       <c r="D15">
-        <v>1.019904826051358</v>
+        <v>1.044820237740815</v>
       </c>
       <c r="E15">
-        <v>1.004562623096114</v>
+        <v>1.03455359818483</v>
       </c>
       <c r="F15">
-        <v>1.021962402083201</v>
+        <v>1.05286189697259</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044241220466528</v>
+        <v>1.041156822038105</v>
       </c>
       <c r="J15">
-        <v>1.025678147655029</v>
+        <v>1.041950947074821</v>
       </c>
       <c r="K15">
-        <v>1.034390983023374</v>
+        <v>1.048339322509792</v>
       </c>
       <c r="L15">
-        <v>1.019327552704602</v>
+        <v>1.03811026851013</v>
       </c>
       <c r="M15">
-        <v>1.036411998037267</v>
+        <v>1.056352106640029</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9990714477192172</v>
+        <v>1.035949815582414</v>
       </c>
       <c r="D16">
-        <v>1.022007653928269</v>
+        <v>1.045245627633101</v>
       </c>
       <c r="E16">
-        <v>1.006727824129626</v>
+        <v>1.035005006722288</v>
       </c>
       <c r="F16">
-        <v>1.024400882549029</v>
+        <v>1.053367542893764</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045102711018757</v>
+        <v>1.04129353762407</v>
       </c>
       <c r="J16">
-        <v>1.02724505153556</v>
+        <v>1.042266815558441</v>
       </c>
       <c r="K16">
-        <v>1.035955060643591</v>
+        <v>1.048650510268662</v>
       </c>
       <c r="L16">
-        <v>1.020940334902156</v>
+        <v>1.03844606918025</v>
       </c>
       <c r="M16">
-        <v>1.038307691273435</v>
+        <v>1.056744281567745</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.000788406180025</v>
+        <v>1.036285284588227</v>
       </c>
       <c r="D17">
-        <v>1.023313203294249</v>
+        <v>1.045512677012955</v>
       </c>
       <c r="E17">
-        <v>1.008072876661154</v>
+        <v>1.035288493176371</v>
       </c>
       <c r="F17">
-        <v>1.02591516145715</v>
+        <v>1.053685048195894</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045634704932442</v>
+        <v>1.041379037371464</v>
       </c>
       <c r="J17">
-        <v>1.028216320779214</v>
+        <v>1.042464970909186</v>
       </c>
       <c r="K17">
-        <v>1.036924452857806</v>
+        <v>1.048845697258795</v>
       </c>
       <c r="L17">
-        <v>1.021940824365945</v>
+        <v>1.038656814985568</v>
       </c>
       <c r="M17">
-        <v>1.039483565507217</v>
+        <v>1.056990392581254</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.001782929380305</v>
+        <v>1.036481043303233</v>
       </c>
       <c r="D18">
-        <v>1.024069947720223</v>
+        <v>1.045668518771379</v>
       </c>
       <c r="E18">
-        <v>1.008852801123653</v>
+        <v>1.03545396429457</v>
       </c>
       <c r="F18">
-        <v>1.026793019520976</v>
+        <v>1.053870360873912</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045942032251268</v>
+        <v>1.041428814595642</v>
       </c>
       <c r="J18">
-        <v>1.028778748594972</v>
+        <v>1.042580558148325</v>
       </c>
       <c r="K18">
-        <v>1.037485746002716</v>
+        <v>1.0489595414559</v>
       </c>
       <c r="L18">
-        <v>1.022520453554379</v>
+        <v>1.038779777531209</v>
       </c>
       <c r="M18">
-        <v>1.040164759704538</v>
+        <v>1.057133984111889</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.002120873111618</v>
+        <v>1.036547806389196</v>
       </c>
       <c r="D19">
-        <v>1.024327180212872</v>
+        <v>1.045721669682722</v>
       </c>
       <c r="E19">
-        <v>1.0091179611102</v>
+        <v>1.035510405673685</v>
       </c>
       <c r="F19">
-        <v>1.027091442800952</v>
+        <v>1.053933567528936</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046046322825155</v>
+        <v>1.041445771489859</v>
       </c>
       <c r="J19">
-        <v>1.028969834978892</v>
+        <v>1.04261997148594</v>
       </c>
       <c r="K19">
-        <v>1.037676438527756</v>
+        <v>1.048998358483767</v>
       </c>
       <c r="L19">
-        <v>1.022717431770057</v>
+        <v>1.038821710998733</v>
       </c>
       <c r="M19">
-        <v>1.040396245846255</v>
+        <v>1.057182951703015</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.000604915400608</v>
+        <v>1.036249283102182</v>
       </c>
       <c r="D20">
-        <v>1.023173624906977</v>
+        <v>1.045484017229095</v>
       </c>
       <c r="E20">
-        <v>1.007929045680981</v>
+        <v>1.035258065516693</v>
       </c>
       <c r="F20">
-        <v>1.025753254462121</v>
+        <v>1.053650970744404</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045577935924067</v>
+        <v>1.041369873706232</v>
       </c>
       <c r="J20">
-        <v>1.028112538472661</v>
+        <v>1.042443710025929</v>
       </c>
       <c r="K20">
-        <v>1.036820876008529</v>
+        <v>1.04882475605686</v>
       </c>
       <c r="L20">
-        <v>1.021833890659104</v>
+        <v>1.038634200005979</v>
       </c>
       <c r="M20">
-        <v>1.039357890920451</v>
+        <v>1.056963983138597</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9955935062016076</v>
+        <v>1.035279761424626</v>
       </c>
       <c r="D21">
-        <v>1.019366620361803</v>
+        <v>1.044712287845966</v>
       </c>
       <c r="E21">
-        <v>1.004008694169898</v>
+        <v>1.034439077418268</v>
       </c>
       <c r="F21">
-        <v>1.021338389841497</v>
+        <v>1.052733603253996</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044019837356274</v>
+        <v>1.041122027362495</v>
       </c>
       <c r="J21">
-        <v>1.025276623426946</v>
+        <v>1.041870747167146</v>
       </c>
       <c r="K21">
-        <v>1.033990146243165</v>
+        <v>1.048260301211869</v>
       </c>
       <c r="L21">
-        <v>1.018914516529609</v>
+        <v>1.038025034379259</v>
       </c>
       <c r="M21">
-        <v>1.035926471169754</v>
+        <v>1.05625255881707</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9923762825039745</v>
+        <v>1.034670964343533</v>
       </c>
       <c r="D22">
-        <v>1.016927838102202</v>
+        <v>1.044227771484142</v>
       </c>
       <c r="E22">
-        <v>1.001499845238443</v>
+        <v>1.033925225204375</v>
       </c>
       <c r="F22">
-        <v>1.018511269484123</v>
+        <v>1.052157887309715</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043012293529921</v>
+        <v>1.040965360728593</v>
       </c>
       <c r="J22">
-        <v>1.023454773792225</v>
+        <v>1.041510570795771</v>
       </c>
       <c r="K22">
-        <v>1.032171248223828</v>
+        <v>1.047905369650113</v>
       </c>
       <c r="L22">
-        <v>1.017041648341429</v>
+        <v>1.037642380461291</v>
       </c>
       <c r="M22">
-        <v>1.03372472281731</v>
+        <v>1.055805621806513</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9940882712052113</v>
+        <v>1.034993624754437</v>
       </c>
       <c r="D23">
-        <v>1.01822507847527</v>
+        <v>1.044484555767248</v>
       </c>
       <c r="E23">
-        <v>1.002834118063213</v>
+        <v>1.034197525179495</v>
       </c>
       <c r="F23">
-        <v>1.020014980158893</v>
+        <v>1.052462983202845</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043549111781323</v>
+        <v>1.041048491655581</v>
       </c>
       <c r="J23">
-        <v>1.024424343024351</v>
+        <v>1.04170150021728</v>
       </c>
       <c r="K23">
-        <v>1.033139279442509</v>
+        <v>1.048093528585626</v>
       </c>
       <c r="L23">
-        <v>1.018038123732857</v>
+        <v>1.03784519864674</v>
       </c>
       <c r="M23">
-        <v>1.034896217591301</v>
+        <v>1.056042516560257</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.000687848423195</v>
+        <v>1.036265550360625</v>
       </c>
       <c r="D24">
-        <v>1.023236709059967</v>
+        <v>1.045496967116029</v>
       </c>
       <c r="E24">
-        <v>1.007994050969143</v>
+        <v>1.035271814101175</v>
       </c>
       <c r="F24">
-        <v>1.025826429908989</v>
+        <v>1.053666368515987</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045603596579904</v>
+        <v>1.041374014660574</v>
       </c>
       <c r="J24">
-        <v>1.028159445871588</v>
+        <v>1.04245331688375</v>
       </c>
       <c r="K24">
-        <v>1.036867690693793</v>
+        <v>1.04883421850045</v>
       </c>
       <c r="L24">
-        <v>1.021882221553215</v>
+        <v>1.03864441862431</v>
       </c>
       <c r="M24">
-        <v>1.039414692276331</v>
+        <v>1.056975916308219</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.008075316902741</v>
+        <v>1.037744890366884</v>
       </c>
       <c r="D25">
-        <v>1.028866698348525</v>
+        <v>1.046674803537988</v>
       </c>
       <c r="E25">
-        <v>1.013801592287431</v>
+        <v>1.036523099271999</v>
       </c>
       <c r="F25">
-        <v>1.032359856667247</v>
+        <v>1.055067420901252</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047871464289025</v>
+        <v>1.041748102131622</v>
       </c>
       <c r="J25">
-        <v>1.032333937450301</v>
+        <v>1.04332601155977</v>
       </c>
       <c r="K25">
-        <v>1.041032833543963</v>
+        <v>1.049693544073044</v>
       </c>
       <c r="L25">
-        <v>1.026189368768803</v>
+        <v>1.039573357792826</v>
       </c>
       <c r="M25">
-        <v>1.044475769404062</v>
+        <v>1.058060604336421</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_5/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038927444142529</v>
+        <v>1.01376710590998</v>
       </c>
       <c r="D2">
-        <v>1.047616587205179</v>
+        <v>1.033218463394</v>
       </c>
       <c r="E2">
-        <v>1.03752478985291</v>
+        <v>1.018299611576478</v>
       </c>
       <c r="F2">
-        <v>1.056188527193665</v>
+        <v>1.037414383201525</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042043491777227</v>
+        <v>1.049591873518618</v>
       </c>
       <c r="J2">
-        <v>1.044022227579138</v>
+        <v>1.035543700218205</v>
       </c>
       <c r="K2">
-        <v>1.050378726037938</v>
+        <v>1.044233626113219</v>
       </c>
       <c r="L2">
-        <v>1.040315426889857</v>
+        <v>1.029509757336176</v>
       </c>
       <c r="M2">
-        <v>1.058926923289173</v>
+        <v>1.048375969123194</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039787584377955</v>
+        <v>1.017791847722958</v>
       </c>
       <c r="D3">
-        <v>1.048301733414593</v>
+        <v>1.036302865475729</v>
       </c>
       <c r="E3">
-        <v>1.03825420163419</v>
+        <v>1.021493009806246</v>
       </c>
       <c r="F3">
-        <v>1.057004621183756</v>
+        <v>1.040999685419147</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042256228456884</v>
+        <v>1.050792175109317</v>
       </c>
       <c r="J3">
-        <v>1.04452781047057</v>
+        <v>1.037808966203077</v>
       </c>
       <c r="K3">
-        <v>1.05087608095883</v>
+        <v>1.046491395710307</v>
       </c>
       <c r="L3">
-        <v>1.040854877054477</v>
+        <v>1.031858075522398</v>
       </c>
       <c r="M3">
-        <v>1.059556600591692</v>
+        <v>1.05113352573205</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040344838241483</v>
+        <v>1.020348679999198</v>
       </c>
       <c r="D4">
-        <v>1.048745672616952</v>
+        <v>1.038265370321749</v>
       </c>
       <c r="E4">
-        <v>1.038727138843579</v>
+        <v>1.023527374479641</v>
       </c>
       <c r="F4">
-        <v>1.057533635725298</v>
+        <v>1.043282270098423</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042393072671594</v>
+        <v>1.051546981188842</v>
       </c>
       <c r="J4">
-        <v>1.044854980474361</v>
+        <v>1.039245808575785</v>
       </c>
       <c r="K4">
-        <v>1.051197826453084</v>
+        <v>1.047922900709648</v>
       </c>
       <c r="L4">
-        <v>1.041204226393943</v>
+        <v>1.033349901104242</v>
       </c>
       <c r="M4">
-        <v>1.059964336641698</v>
+        <v>1.052884940217976</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040579270305734</v>
+        <v>1.021412569553922</v>
       </c>
       <c r="D5">
-        <v>1.048932447431524</v>
+        <v>1.039082653101138</v>
       </c>
       <c r="E5">
-        <v>1.03892618944282</v>
+        <v>1.024375191080573</v>
       </c>
       <c r="F5">
-        <v>1.057756258273463</v>
+        <v>1.044233190314519</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042450407178453</v>
+        <v>1.051859170368451</v>
       </c>
       <c r="J5">
-        <v>1.044992527229103</v>
+        <v>1.039843110001359</v>
       </c>
       <c r="K5">
-        <v>1.05133306863562</v>
+        <v>1.048517837342538</v>
       </c>
       <c r="L5">
-        <v>1.041351160674433</v>
+        <v>1.033970612388136</v>
       </c>
       <c r="M5">
-        <v>1.06013581737374</v>
+        <v>1.053613565595754</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040618641965935</v>
+        <v>1.021590566142806</v>
       </c>
       <c r="D6">
-        <v>1.048963816065456</v>
+        <v>1.039219429996217</v>
       </c>
       <c r="E6">
-        <v>1.038959624220237</v>
+        <v>1.024517113879962</v>
       </c>
       <c r="F6">
-        <v>1.057793650707587</v>
+        <v>1.044392352525811</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042460022449987</v>
+        <v>1.051911290350888</v>
       </c>
       <c r="J6">
-        <v>1.045015622160384</v>
+        <v>1.03994300898515</v>
       </c>
       <c r="K6">
-        <v>1.051355775203685</v>
+        <v>1.048617332049272</v>
       </c>
       <c r="L6">
-        <v>1.041375835523683</v>
+        <v>1.034074459211944</v>
       </c>
       <c r="M6">
-        <v>1.060164613713851</v>
+        <v>1.053735461195292</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040347970097522</v>
+        <v>1.020362938516113</v>
       </c>
       <c r="D7">
-        <v>1.048748167752391</v>
+        <v>1.038276321077316</v>
       </c>
       <c r="E7">
-        <v>1.038729797674598</v>
+        <v>1.023538731950181</v>
       </c>
       <c r="F7">
-        <v>1.057536609537641</v>
+        <v>1.043295010100555</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042393839544426</v>
+        <v>1.051551172703049</v>
       </c>
       <c r="J7">
-        <v>1.044856818364805</v>
+        <v>1.039253816024305</v>
       </c>
       <c r="K7">
-        <v>1.051199633644523</v>
+        <v>1.047930877040638</v>
       </c>
       <c r="L7">
-        <v>1.041206189472232</v>
+        <v>1.033358220200935</v>
       </c>
       <c r="M7">
-        <v>1.059966627708473</v>
+        <v>1.052894706009335</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.039217989639331</v>
+        <v>1.015137329091236</v>
       </c>
       <c r="D8">
-        <v>1.04784800948885</v>
+        <v>1.034267883916666</v>
       </c>
       <c r="E8">
-        <v>1.037771098331759</v>
+        <v>1.019385595140204</v>
       </c>
       <c r="F8">
-        <v>1.056464132710305</v>
+        <v>1.038633946853999</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042115554542539</v>
+        <v>1.050002113491453</v>
       </c>
       <c r="J8">
-        <v>1.044193085933898</v>
+        <v>1.036315359909931</v>
       </c>
       <c r="K8">
-        <v>1.050546824478412</v>
+        <v>1.045002850391363</v>
       </c>
       <c r="L8">
-        <v>1.040497675932354</v>
+        <v>1.030309225904819</v>
       </c>
       <c r="M8">
-        <v>1.059139664117746</v>
+        <v>1.049314841097402</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.037232141463659</v>
+        <v>1.005548993698885</v>
       </c>
       <c r="D9">
-        <v>1.046266518410762</v>
+        <v>1.026939042894</v>
       </c>
       <c r="E9">
-        <v>1.036089171781896</v>
+        <v>1.011811743046679</v>
       </c>
       <c r="F9">
-        <v>1.054581630431146</v>
+        <v>1.030122206837324</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041619004688498</v>
+        <v>1.047100060291608</v>
       </c>
       <c r="J9">
-        <v>1.043023745370418</v>
+        <v>1.030907312975696</v>
       </c>
       <c r="K9">
-        <v>1.049395965223944</v>
+        <v>1.039609666178587</v>
       </c>
       <c r="L9">
-        <v>1.039251458697216</v>
+        <v>1.024716046287973</v>
       </c>
       <c r="M9">
-        <v>1.057684760637538</v>
+        <v>1.042744770827984</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035911915938126</v>
+        <v>0.9988764623307992</v>
       </c>
       <c r="D10">
-        <v>1.045215458859367</v>
+        <v>1.021859462701963</v>
       </c>
       <c r="E10">
-        <v>1.034972986069888</v>
+        <v>1.006575187246578</v>
       </c>
       <c r="F10">
-        <v>1.053331677643743</v>
+        <v>1.024229015567169</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041283862718402</v>
+        <v>1.045042184363103</v>
       </c>
       <c r="J10">
-        <v>1.042244423016686</v>
+        <v>1.027134728229087</v>
       </c>
       <c r="K10">
-        <v>1.048628451605641</v>
+        <v>1.035844944232732</v>
       </c>
       <c r="L10">
-        <v>1.038422258061563</v>
+        <v>1.020826730880369</v>
       </c>
       <c r="M10">
-        <v>1.056716473988286</v>
+        <v>1.038174166711789</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035341134963285</v>
+        <v>0.9959147909801777</v>
       </c>
       <c r="D11">
-        <v>1.044761135949633</v>
+        <v>1.019610393276344</v>
       </c>
       <c r="E11">
-        <v>1.034490897304001</v>
+        <v>1.004259576786943</v>
       </c>
       <c r="F11">
-        <v>1.052791655963897</v>
+        <v>1.021621022720925</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041137777226265</v>
+        <v>1.044120153990421</v>
       </c>
       <c r="J11">
-        <v>1.041907040342505</v>
+        <v>1.02545851253112</v>
       </c>
       <c r="K11">
-        <v>1.048296061516011</v>
+        <v>1.034171725695957</v>
       </c>
       <c r="L11">
-        <v>1.038063604384843</v>
+        <v>1.019101608329144</v>
       </c>
       <c r="M11">
-        <v>1.05629760625874</v>
+        <v>1.03614640068067</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.035129256117222</v>
+        <v>0.9948032763041869</v>
       </c>
       <c r="D12">
-        <v>1.044592501117123</v>
+        <v>1.018767212457467</v>
       </c>
       <c r="E12">
-        <v>1.034312014254795</v>
+        <v>1.003391887560019</v>
       </c>
       <c r="F12">
-        <v>1.052591252536392</v>
+        <v>1.020643464181957</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04108337004742</v>
+        <v>1.043772862359625</v>
       </c>
       <c r="J12">
-        <v>1.041781733058564</v>
+        <v>1.024829210898753</v>
       </c>
       <c r="K12">
-        <v>1.048172590630502</v>
+        <v>1.033543483318336</v>
       </c>
       <c r="L12">
-        <v>1.037930445279824</v>
+        <v>1.018454391595732</v>
       </c>
       <c r="M12">
-        <v>1.056142082857525</v>
+        <v>1.035385574055089</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.035174698731244</v>
+        <v>0.9950422256593051</v>
       </c>
       <c r="D13">
-        <v>1.044628668359924</v>
+        <v>1.018948434969365</v>
       </c>
       <c r="E13">
-        <v>1.034350376821384</v>
+        <v>1.00357835791767</v>
       </c>
       <c r="F13">
-        <v>1.052634231363757</v>
+        <v>1.020853560068957</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041095047100193</v>
+        <v>1.043847577821769</v>
       </c>
       <c r="J13">
-        <v>1.041808611347836</v>
+        <v>1.024964505070023</v>
       </c>
       <c r="K13">
-        <v>1.048199075822803</v>
+        <v>1.033678552598762</v>
       </c>
       <c r="L13">
-        <v>1.037959005584362</v>
+        <v>1.01859351717039</v>
       </c>
       <c r="M13">
-        <v>1.056175440290797</v>
+        <v>1.035549124174405</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035323618236243</v>
+        <v>0.9958231489789403</v>
       </c>
       <c r="D14">
-        <v>1.044747194064455</v>
+        <v>1.019540856282094</v>
       </c>
       <c r="E14">
-        <v>1.034476106966637</v>
+        <v>1.004188009720907</v>
       </c>
       <c r="F14">
-        <v>1.052775086775541</v>
+        <v>1.021540399969701</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041133282855881</v>
+        <v>1.044091545791931</v>
       </c>
       <c r="J14">
-        <v>1.041896682157937</v>
+        <v>1.025406632165333</v>
       </c>
       <c r="K14">
-        <v>1.04828585549698</v>
+        <v>1.034119933946938</v>
       </c>
       <c r="L14">
-        <v>1.03805259616251</v>
+        <v>1.019048241943237</v>
       </c>
       <c r="M14">
-        <v>1.056284749357027</v>
+        <v>1.036083667914532</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035415390344962</v>
+        <v>0.9963027719757144</v>
       </c>
       <c r="D15">
-        <v>1.044820237740815</v>
+        <v>1.019904826051357</v>
       </c>
       <c r="E15">
-        <v>1.03455359818483</v>
+        <v>1.004562623096114</v>
       </c>
       <c r="F15">
-        <v>1.05286189697259</v>
+        <v>1.021962402083201</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041156822038105</v>
+        <v>1.044241220466527</v>
       </c>
       <c r="J15">
-        <v>1.041950947074821</v>
+        <v>1.025678147655029</v>
       </c>
       <c r="K15">
-        <v>1.048339322509792</v>
+        <v>1.034390983023374</v>
       </c>
       <c r="L15">
-        <v>1.03811026851013</v>
+        <v>1.019327552704601</v>
       </c>
       <c r="M15">
-        <v>1.056352106640029</v>
+        <v>1.036411998037267</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035949815582414</v>
+        <v>0.9990714477192166</v>
       </c>
       <c r="D16">
-        <v>1.045245627633101</v>
+        <v>1.022007653928268</v>
       </c>
       <c r="E16">
-        <v>1.035005006722288</v>
+        <v>1.006727824129625</v>
       </c>
       <c r="F16">
-        <v>1.053367542893764</v>
+        <v>1.024400882549029</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04129353762407</v>
+        <v>1.045102711018757</v>
       </c>
       <c r="J16">
-        <v>1.042266815558441</v>
+        <v>1.02724505153556</v>
       </c>
       <c r="K16">
-        <v>1.048650510268662</v>
+        <v>1.035955060643591</v>
       </c>
       <c r="L16">
-        <v>1.03844606918025</v>
+        <v>1.020940334902155</v>
       </c>
       <c r="M16">
-        <v>1.056744281567745</v>
+        <v>1.038307691273435</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036285284588227</v>
+        <v>1.000788406180026</v>
       </c>
       <c r="D17">
-        <v>1.045512677012955</v>
+        <v>1.02331320329425</v>
       </c>
       <c r="E17">
-        <v>1.035288493176371</v>
+        <v>1.008072876661154</v>
       </c>
       <c r="F17">
-        <v>1.053685048195894</v>
+        <v>1.02591516145715</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041379037371464</v>
+        <v>1.045634704932442</v>
       </c>
       <c r="J17">
-        <v>1.042464970909186</v>
+        <v>1.028216320779214</v>
       </c>
       <c r="K17">
-        <v>1.048845697258795</v>
+        <v>1.036924452857806</v>
       </c>
       <c r="L17">
-        <v>1.038656814985568</v>
+        <v>1.021940824365945</v>
       </c>
       <c r="M17">
-        <v>1.056990392581254</v>
+        <v>1.039483565507217</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036481043303233</v>
+        <v>1.001782929380307</v>
       </c>
       <c r="D18">
-        <v>1.045668518771379</v>
+        <v>1.024069947720226</v>
       </c>
       <c r="E18">
-        <v>1.03545396429457</v>
+        <v>1.008852801123654</v>
       </c>
       <c r="F18">
-        <v>1.053870360873912</v>
+        <v>1.026793019520978</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041428814595642</v>
+        <v>1.045942032251268</v>
       </c>
       <c r="J18">
-        <v>1.042580558148325</v>
+        <v>1.028778748594973</v>
       </c>
       <c r="K18">
-        <v>1.0489595414559</v>
+        <v>1.037485746002717</v>
       </c>
       <c r="L18">
-        <v>1.038779777531209</v>
+        <v>1.02252045355438</v>
       </c>
       <c r="M18">
-        <v>1.057133984111889</v>
+        <v>1.04016475970454</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.036547806389196</v>
+        <v>1.002120873111618</v>
       </c>
       <c r="D19">
-        <v>1.045721669682722</v>
+        <v>1.024327180212872</v>
       </c>
       <c r="E19">
-        <v>1.035510405673685</v>
+        <v>1.009117961110199</v>
       </c>
       <c r="F19">
-        <v>1.053933567528936</v>
+        <v>1.027091442800953</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041445771489859</v>
+        <v>1.046046322825156</v>
       </c>
       <c r="J19">
-        <v>1.04261997148594</v>
+        <v>1.028969834978891</v>
       </c>
       <c r="K19">
-        <v>1.048998358483767</v>
+        <v>1.037676438527756</v>
       </c>
       <c r="L19">
-        <v>1.038821710998733</v>
+        <v>1.022717431770057</v>
       </c>
       <c r="M19">
-        <v>1.057182951703015</v>
+        <v>1.040396245846255</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.036249283102182</v>
+        <v>1.000604915400608</v>
       </c>
       <c r="D20">
-        <v>1.045484017229095</v>
+        <v>1.023173624906976</v>
       </c>
       <c r="E20">
-        <v>1.035258065516693</v>
+        <v>1.007929045680981</v>
       </c>
       <c r="F20">
-        <v>1.053650970744404</v>
+        <v>1.025753254462121</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041369873706232</v>
+        <v>1.045577935924067</v>
       </c>
       <c r="J20">
-        <v>1.042443710025929</v>
+        <v>1.028112538472661</v>
       </c>
       <c r="K20">
-        <v>1.04882475605686</v>
+        <v>1.036820876008529</v>
       </c>
       <c r="L20">
-        <v>1.038634200005979</v>
+        <v>1.021833890659104</v>
       </c>
       <c r="M20">
-        <v>1.056963983138597</v>
+        <v>1.039357890920451</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035279761424626</v>
+        <v>0.9955935062016074</v>
       </c>
       <c r="D21">
-        <v>1.044712287845966</v>
+        <v>1.019366620361802</v>
       </c>
       <c r="E21">
-        <v>1.034439077418268</v>
+        <v>1.004008694169898</v>
       </c>
       <c r="F21">
-        <v>1.052733603253996</v>
+        <v>1.021338389841497</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041122027362495</v>
+        <v>1.044019837356274</v>
       </c>
       <c r="J21">
-        <v>1.041870747167146</v>
+        <v>1.025276623426945</v>
       </c>
       <c r="K21">
-        <v>1.048260301211869</v>
+        <v>1.033990146243165</v>
       </c>
       <c r="L21">
-        <v>1.038025034379259</v>
+        <v>1.018914516529609</v>
       </c>
       <c r="M21">
-        <v>1.05625255881707</v>
+        <v>1.035926471169754</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034670964343533</v>
+        <v>0.9923762825039748</v>
       </c>
       <c r="D22">
-        <v>1.044227771484142</v>
+        <v>1.016927838102203</v>
       </c>
       <c r="E22">
-        <v>1.033925225204375</v>
+        <v>1.001499845238443</v>
       </c>
       <c r="F22">
-        <v>1.052157887309715</v>
+        <v>1.018511269484124</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040965360728593</v>
+        <v>1.043012293529921</v>
       </c>
       <c r="J22">
-        <v>1.041510570795771</v>
+        <v>1.023454773792225</v>
       </c>
       <c r="K22">
-        <v>1.047905369650113</v>
+        <v>1.032171248223828</v>
       </c>
       <c r="L22">
-        <v>1.037642380461291</v>
+        <v>1.01704164834143</v>
       </c>
       <c r="M22">
-        <v>1.055805621806513</v>
+        <v>1.033724722817311</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.034993624754437</v>
+        <v>0.994088271205212</v>
       </c>
       <c r="D23">
-        <v>1.044484555767248</v>
+        <v>1.01822507847527</v>
       </c>
       <c r="E23">
-        <v>1.034197525179495</v>
+        <v>1.002834118063214</v>
       </c>
       <c r="F23">
-        <v>1.052462983202845</v>
+        <v>1.020014980158894</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041048491655581</v>
+        <v>1.043549111781324</v>
       </c>
       <c r="J23">
-        <v>1.04170150021728</v>
+        <v>1.024424343024351</v>
       </c>
       <c r="K23">
-        <v>1.048093528585626</v>
+        <v>1.03313927944251</v>
       </c>
       <c r="L23">
-        <v>1.03784519864674</v>
+        <v>1.018038123732858</v>
       </c>
       <c r="M23">
-        <v>1.056042516560257</v>
+        <v>1.034896217591301</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036265550360625</v>
+        <v>1.000687848423196</v>
       </c>
       <c r="D24">
-        <v>1.045496967116029</v>
+        <v>1.023236709059967</v>
       </c>
       <c r="E24">
-        <v>1.035271814101175</v>
+        <v>1.007994050969143</v>
       </c>
       <c r="F24">
-        <v>1.053666368515987</v>
+        <v>1.02582642990899</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041374014660574</v>
+        <v>1.045603596579904</v>
       </c>
       <c r="J24">
-        <v>1.04245331688375</v>
+        <v>1.028159445871589</v>
       </c>
       <c r="K24">
-        <v>1.04883421850045</v>
+        <v>1.036867690693793</v>
       </c>
       <c r="L24">
-        <v>1.03864441862431</v>
+        <v>1.021882221553215</v>
       </c>
       <c r="M24">
-        <v>1.056975916308219</v>
+        <v>1.039414692276331</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037744890366884</v>
+        <v>1.00807531690274</v>
       </c>
       <c r="D25">
-        <v>1.046674803537988</v>
+        <v>1.028866698348524</v>
       </c>
       <c r="E25">
-        <v>1.036523099271999</v>
+        <v>1.013801592287429</v>
       </c>
       <c r="F25">
-        <v>1.055067420901252</v>
+        <v>1.032359856667245</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041748102131622</v>
+        <v>1.047871464289024</v>
       </c>
       <c r="J25">
-        <v>1.04332601155977</v>
+        <v>1.032333937450299</v>
       </c>
       <c r="K25">
-        <v>1.049693544073044</v>
+        <v>1.041032833543962</v>
       </c>
       <c r="L25">
-        <v>1.039573357792826</v>
+        <v>1.026189368768801</v>
       </c>
       <c r="M25">
-        <v>1.058060604336421</v>
+        <v>1.04447576940406</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_5/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,37 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.01376710590998</v>
+        <v>1.026375982043843</v>
       </c>
       <c r="D2">
-        <v>1.033218463394</v>
+        <v>1.038015190688637</v>
       </c>
       <c r="E2">
-        <v>1.018299611576478</v>
+        <v>1.036257858371825</v>
       </c>
       <c r="F2">
-        <v>1.037414383201525</v>
+        <v>1.04098741185841</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049591873518618</v>
+        <v>1.052576523495346</v>
       </c>
       <c r="J2">
-        <v>1.035543700218205</v>
+        <v>1.047795428166579</v>
       </c>
       <c r="K2">
-        <v>1.044233626113219</v>
+        <v>1.048969149293064</v>
       </c>
       <c r="L2">
-        <v>1.029509757336176</v>
+        <v>1.047234157604614</v>
       </c>
       <c r="M2">
-        <v>1.048375969123194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.051903799368391</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503999</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.049650709026861</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.045695684405369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,37 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017791847722958</v>
+        <v>1.030782162242031</v>
       </c>
       <c r="D3">
-        <v>1.036302865475729</v>
+        <v>1.040980089096247</v>
       </c>
       <c r="E3">
-        <v>1.021493009806246</v>
+        <v>1.039789662233877</v>
       </c>
       <c r="F3">
-        <v>1.040999685419147</v>
+        <v>1.04435762213491</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050792175109317</v>
+        <v>1.053800554783865</v>
       </c>
       <c r="J3">
-        <v>1.037808966203077</v>
+        <v>1.050467454159978</v>
       </c>
       <c r="K3">
-        <v>1.046491395710307</v>
+        <v>1.051114156322378</v>
       </c>
       <c r="L3">
-        <v>1.031858075522398</v>
+        <v>1.049937533690553</v>
       </c>
       <c r="M3">
-        <v>1.05113352573205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.054452734895757</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.051667992682193</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.047209724845622</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -497,37 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020348679999198</v>
+        <v>1.033577786040664</v>
       </c>
       <c r="D4">
-        <v>1.038265370321749</v>
+        <v>1.042864852730752</v>
       </c>
       <c r="E4">
-        <v>1.023527374479641</v>
+        <v>1.042036181527014</v>
       </c>
       <c r="F4">
-        <v>1.043282270098423</v>
+        <v>1.046504428243562</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051546981188842</v>
+        <v>1.054568665881118</v>
       </c>
       <c r="J4">
-        <v>1.039245808575785</v>
+        <v>1.052159894388394</v>
       </c>
       <c r="K4">
-        <v>1.047922900709648</v>
+        <v>1.05247206264274</v>
       </c>
       <c r="L4">
-        <v>1.033349901104242</v>
+        <v>1.05165241721769</v>
       </c>
       <c r="M4">
-        <v>1.052884940217976</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.056072203903911</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.052949673265855</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.048170748979914</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -535,37 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021412569553922</v>
+        <v>1.03474535191371</v>
       </c>
       <c r="D5">
-        <v>1.039082653101138</v>
+        <v>1.043655324309441</v>
       </c>
       <c r="E5">
-        <v>1.024375191080573</v>
+        <v>1.042976213160285</v>
       </c>
       <c r="F5">
-        <v>1.044233190314519</v>
+        <v>1.047402673476783</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051859170368451</v>
+        <v>1.054889545638618</v>
       </c>
       <c r="J5">
-        <v>1.039843110001359</v>
+        <v>1.052867901987765</v>
       </c>
       <c r="K5">
-        <v>1.048517837342538</v>
+        <v>1.053041815932617</v>
       </c>
       <c r="L5">
-        <v>1.033970612388136</v>
+        <v>1.052369903340606</v>
       </c>
       <c r="M5">
-        <v>1.053613565595754</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.056749648522252</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.053485816015041</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.04858069316645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -573,37 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021590566142806</v>
+        <v>1.034946890215421</v>
       </c>
       <c r="D6">
-        <v>1.039219429996217</v>
+        <v>1.043794847124081</v>
       </c>
       <c r="E6">
-        <v>1.024517113879962</v>
+        <v>1.04313912446853</v>
       </c>
       <c r="F6">
-        <v>1.044392352525811</v>
+        <v>1.047557416822593</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051911290350888</v>
+        <v>1.054947448059514</v>
       </c>
       <c r="J6">
-        <v>1.03994300898515</v>
+        <v>1.052992386990941</v>
       </c>
       <c r="K6">
-        <v>1.048617332049272</v>
+        <v>1.053144250850474</v>
       </c>
       <c r="L6">
-        <v>1.034074459211944</v>
+        <v>1.052495446754147</v>
       </c>
       <c r="M6">
-        <v>1.053735461195292</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.056867326083297</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.053578948269837</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.048661765843548</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -611,37 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020362938516113</v>
+        <v>1.03361029342016</v>
       </c>
       <c r="D7">
-        <v>1.038276321077316</v>
+        <v>1.042894993027755</v>
       </c>
       <c r="E7">
-        <v>1.023538731950181</v>
+        <v>1.042063913642941</v>
       </c>
       <c r="F7">
-        <v>1.043295010100555</v>
+        <v>1.046528301090754</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051551172703049</v>
+        <v>1.054584730393033</v>
       </c>
       <c r="J7">
-        <v>1.039253816024305</v>
+        <v>1.05218584994218</v>
       </c>
       <c r="K7">
-        <v>1.047930877040638</v>
+        <v>1.052499037819991</v>
       </c>
       <c r="L7">
-        <v>1.033358220200935</v>
+        <v>1.0516770068187</v>
       </c>
       <c r="M7">
-        <v>1.052894706009335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.05609299510942</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.052966127832941</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.048209708487706</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -649,37 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.015137329091236</v>
+        <v>1.027898239292128</v>
       </c>
       <c r="D8">
-        <v>1.034267883916666</v>
+        <v>1.039048943428255</v>
       </c>
       <c r="E8">
-        <v>1.019385595140204</v>
+        <v>1.037478963600356</v>
       </c>
       <c r="F8">
-        <v>1.038633946853999</v>
+        <v>1.042148667251623</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050002113491453</v>
+        <v>1.053010145270465</v>
       </c>
       <c r="J8">
-        <v>1.036315359909931</v>
+        <v>1.048727003432875</v>
       </c>
       <c r="K8">
-        <v>1.045002850391363</v>
+        <v>1.049724727505187</v>
       </c>
       <c r="L8">
-        <v>1.030309225904819</v>
+        <v>1.04817410681478</v>
       </c>
       <c r="M8">
-        <v>1.049314841097402</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.052786442135908</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.050349252548145</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.046252610569486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -687,37 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.005548993698885</v>
+        <v>1.017359395482408</v>
       </c>
       <c r="D9">
-        <v>1.026939042894</v>
+        <v>1.031970555799119</v>
       </c>
       <c r="E9">
-        <v>1.011811743046679</v>
+        <v>1.029063939373579</v>
       </c>
       <c r="F9">
-        <v>1.030122206837324</v>
+        <v>1.034139400500593</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047100060291608</v>
+        <v>1.050027317525968</v>
       </c>
       <c r="J9">
-        <v>1.030907312975696</v>
+        <v>1.042313697125254</v>
       </c>
       <c r="K9">
-        <v>1.039609666178587</v>
+        <v>1.044565386614374</v>
       </c>
       <c r="L9">
-        <v>1.024716046287973</v>
+        <v>1.041702439034393</v>
       </c>
       <c r="M9">
-        <v>1.042744770827984</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.046701850080559</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.045533754922713</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.042601522272537</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -725,37 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9988764623307992</v>
+        <v>1.010125145505976</v>
       </c>
       <c r="D10">
-        <v>1.021859462701963</v>
+        <v>1.027152214598277</v>
       </c>
       <c r="E10">
-        <v>1.006575187246578</v>
+        <v>1.023368637065993</v>
       </c>
       <c r="F10">
-        <v>1.024229015567169</v>
+        <v>1.028780724254717</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045042184363103</v>
+        <v>1.047969721240083</v>
       </c>
       <c r="J10">
-        <v>1.027134728229087</v>
+        <v>1.037942723155885</v>
       </c>
       <c r="K10">
-        <v>1.035844944232732</v>
+        <v>1.041047942824028</v>
       </c>
       <c r="L10">
-        <v>1.020826730880369</v>
+        <v>1.037328404185718</v>
       </c>
       <c r="M10">
-        <v>1.038174166711789</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.0426490760935</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.042377467365437</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.040131190059018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -763,37 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9959147909801777</v>
+        <v>1.007892187741103</v>
       </c>
       <c r="D11">
-        <v>1.019610393276344</v>
+        <v>1.025798477920841</v>
       </c>
       <c r="E11">
-        <v>1.004259576786943</v>
+        <v>1.021997468284176</v>
       </c>
       <c r="F11">
-        <v>1.021621022720925</v>
+        <v>1.027860023691353</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044120153990421</v>
+        <v>1.047577162472079</v>
       </c>
       <c r="J11">
-        <v>1.02545851253112</v>
+        <v>1.036940288657092</v>
       </c>
       <c r="K11">
-        <v>1.034171725695957</v>
+        <v>1.040249738161883</v>
       </c>
       <c r="L11">
-        <v>1.019101608329144</v>
+        <v>1.036516134982882</v>
       </c>
       <c r="M11">
-        <v>1.03614640068067</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.04227499505459</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.042515610669101</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.039599470042537</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -801,37 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9948032763041869</v>
+        <v>1.007425656488227</v>
       </c>
       <c r="D12">
-        <v>1.018767212457467</v>
+        <v>1.025583168021617</v>
       </c>
       <c r="E12">
-        <v>1.003391887560019</v>
+        <v>1.021915425168935</v>
       </c>
       <c r="F12">
-        <v>1.020643464181957</v>
+        <v>1.028049239001211</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043772862359625</v>
+        <v>1.047629662208677</v>
       </c>
       <c r="J12">
-        <v>1.024829210898753</v>
+        <v>1.036919040425829</v>
       </c>
       <c r="K12">
-        <v>1.033543483318336</v>
+        <v>1.040236117002383</v>
       </c>
       <c r="L12">
-        <v>1.018454391595732</v>
+        <v>1.036634469181505</v>
       </c>
       <c r="M12">
-        <v>1.035385574055089</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.042658092040916</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.043143553713704</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.039589839554392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -839,37 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9950422256593051</v>
+        <v>1.008308489222</v>
       </c>
       <c r="D13">
-        <v>1.018948434969365</v>
+        <v>1.026251794881995</v>
       </c>
       <c r="E13">
-        <v>1.00357835791767</v>
+        <v>1.022839653846113</v>
       </c>
       <c r="F13">
-        <v>1.020853560068957</v>
+        <v>1.029131767956658</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043847577821769</v>
+        <v>1.048045842805696</v>
       </c>
       <c r="J13">
-        <v>1.024964505070023</v>
+        <v>1.037673983032127</v>
       </c>
       <c r="K13">
-        <v>1.033678552598762</v>
+        <v>1.040850355080581</v>
       </c>
       <c r="L13">
-        <v>1.01859351717039</v>
+        <v>1.037499373988163</v>
       </c>
       <c r="M13">
-        <v>1.035549124174405</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.043679116335567</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.044226330777623</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.040021644419602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -877,37 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9958231489789403</v>
+        <v>1.009534643373999</v>
       </c>
       <c r="D14">
-        <v>1.019540856282094</v>
+        <v>1.027119452188892</v>
       </c>
       <c r="E14">
-        <v>1.004188009720907</v>
+        <v>1.02393787066045</v>
       </c>
       <c r="F14">
-        <v>1.021540399969701</v>
+        <v>1.030289519350063</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044091545791931</v>
+        <v>1.048500747431337</v>
       </c>
       <c r="J14">
-        <v>1.025406632165333</v>
+        <v>1.038551175357932</v>
       </c>
       <c r="K14">
-        <v>1.034119933946938</v>
+        <v>1.0415637609093</v>
       </c>
       <c r="L14">
-        <v>1.019048241943237</v>
+        <v>1.038438441675722</v>
       </c>
       <c r="M14">
-        <v>1.036083667914532</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.044678217009241</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.045188719882259</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.040527454438809</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -915,37 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9963027719757144</v>
+        <v>1.010136551472989</v>
       </c>
       <c r="D15">
-        <v>1.019904826051357</v>
+        <v>1.027532894111767</v>
       </c>
       <c r="E15">
-        <v>1.004562623096114</v>
+        <v>1.024438142996268</v>
       </c>
       <c r="F15">
-        <v>1.021962402083201</v>
+        <v>1.030786544311699</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044241220466527</v>
+        <v>1.048697139219809</v>
       </c>
       <c r="J15">
-        <v>1.025678147655029</v>
+        <v>1.038945058482266</v>
       </c>
       <c r="K15">
-        <v>1.034390983023374</v>
+        <v>1.041884459866448</v>
       </c>
       <c r="L15">
-        <v>1.019327552704601</v>
+        <v>1.038843999935237</v>
       </c>
       <c r="M15">
-        <v>1.036411998037267</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.045081486205451</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.04554485648354</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.040760025009523</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -953,37 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9990714477192166</v>
+        <v>1.013026840483995</v>
       </c>
       <c r="D16">
-        <v>1.022007653928268</v>
+        <v>1.029440927004489</v>
       </c>
       <c r="E16">
-        <v>1.006727824129625</v>
+        <v>1.026671804418427</v>
       </c>
       <c r="F16">
-        <v>1.024400882549029</v>
+        <v>1.032876469275187</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045102711018757</v>
+        <v>1.049498996382438</v>
       </c>
       <c r="J16">
-        <v>1.02724505153556</v>
+        <v>1.040657814086503</v>
       </c>
       <c r="K16">
-        <v>1.035955060643591</v>
+        <v>1.043263033439778</v>
       </c>
       <c r="L16">
-        <v>1.020940334902155</v>
+        <v>1.040540315606002</v>
       </c>
       <c r="M16">
-        <v>1.038307691273435</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.046641448336056</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.046739301395468</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.041737851611189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.000788406180026</v>
+        <v>1.014604822434979</v>
       </c>
       <c r="D17">
-        <v>1.02331320329425</v>
+        <v>1.03045355552196</v>
       </c>
       <c r="E17">
-        <v>1.008072876661154</v>
+        <v>1.027812971597845</v>
       </c>
       <c r="F17">
-        <v>1.02591516145715</v>
+        <v>1.033870295771666</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045634704932442</v>
+        <v>1.049874951682132</v>
       </c>
       <c r="J17">
-        <v>1.028216320779214</v>
+        <v>1.041513101400278</v>
       </c>
       <c r="K17">
-        <v>1.036924452857806</v>
+        <v>1.043947892522531</v>
       </c>
       <c r="L17">
-        <v>1.021940824365945</v>
+        <v>1.041350300927797</v>
       </c>
       <c r="M17">
-        <v>1.039483565507217</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.047309421724525</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.047138858510793</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.042224631397582</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.001782929380307</v>
+        <v>1.015173061291428</v>
       </c>
       <c r="D18">
-        <v>1.024069947720226</v>
+        <v>1.030760784063578</v>
       </c>
       <c r="E18">
-        <v>1.008852801123654</v>
+        <v>1.028074652795462</v>
       </c>
       <c r="F18">
-        <v>1.026793019520978</v>
+        <v>1.033945845262033</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045942032251268</v>
+        <v>1.049900630519408</v>
       </c>
       <c r="J18">
-        <v>1.028778748594973</v>
+        <v>1.041674854683148</v>
       </c>
       <c r="K18">
-        <v>1.037485746002717</v>
+        <v>1.044068861748277</v>
       </c>
       <c r="L18">
-        <v>1.02252045355438</v>
+        <v>1.04142576034085</v>
       </c>
       <c r="M18">
-        <v>1.04016475970454</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.047203271653281</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.046818510454755</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.042298615702654</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.002120873111618</v>
+        <v>1.014859986674575</v>
       </c>
       <c r="D19">
-        <v>1.024327180212872</v>
+        <v>1.030467443712143</v>
       </c>
       <c r="E19">
-        <v>1.009117961110199</v>
+        <v>1.02756481146583</v>
       </c>
       <c r="F19">
-        <v>1.027091442800953</v>
+        <v>1.033201981567772</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046046322825156</v>
+        <v>1.0496358516495</v>
       </c>
       <c r="J19">
-        <v>1.028969834978891</v>
+        <v>1.041241704057967</v>
       </c>
       <c r="K19">
-        <v>1.037676438527756</v>
+        <v>1.043718367919386</v>
       </c>
       <c r="L19">
-        <v>1.022717431770057</v>
+        <v>1.040862032484209</v>
       </c>
       <c r="M19">
-        <v>1.040396245846255</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.046409594708171</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.045867304998105</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.042057155050787</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.000604915400608</v>
+        <v>1.012051940970465</v>
       </c>
       <c r="D20">
-        <v>1.023173624906976</v>
+        <v>1.028455454908164</v>
       </c>
       <c r="E20">
-        <v>1.007929045680981</v>
+        <v>1.024890550453297</v>
       </c>
       <c r="F20">
-        <v>1.025753254462121</v>
+        <v>1.030207211618457</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045577935924067</v>
+        <v>1.048540867502612</v>
       </c>
       <c r="J20">
-        <v>1.028112538472661</v>
+        <v>1.039126057424546</v>
       </c>
       <c r="K20">
-        <v>1.036820876008529</v>
+        <v>1.042015746581682</v>
       </c>
       <c r="L20">
-        <v>1.021833890659104</v>
+        <v>1.038509407781986</v>
       </c>
       <c r="M20">
-        <v>1.039357890920451</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.043738915556899</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.043229456785161</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.040857255024171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9955935062016074</v>
+        <v>1.006419753720616</v>
       </c>
       <c r="D21">
-        <v>1.019366620361802</v>
+        <v>1.024686734093945</v>
       </c>
       <c r="E21">
-        <v>1.004008694169898</v>
+        <v>1.020396529016093</v>
       </c>
       <c r="F21">
-        <v>1.021338389841497</v>
+        <v>1.025912939573142</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044019837356274</v>
+        <v>1.046875768230941</v>
       </c>
       <c r="J21">
-        <v>1.025276623426945</v>
+        <v>1.035651498354102</v>
       </c>
       <c r="K21">
-        <v>1.033990146243165</v>
+        <v>1.039215031101971</v>
       </c>
       <c r="L21">
-        <v>1.018914516529609</v>
+        <v>1.035001519041324</v>
       </c>
       <c r="M21">
-        <v>1.035926471169754</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.04041946946628</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.040561689355252</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.038880288245334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9923762825039748</v>
+        <v>1.002837646421703</v>
       </c>
       <c r="D22">
-        <v>1.016927838102203</v>
+        <v>1.022294516835955</v>
       </c>
       <c r="E22">
-        <v>1.001499845238443</v>
+        <v>1.017567411964716</v>
       </c>
       <c r="F22">
-        <v>1.018511269484124</v>
+        <v>1.023239456308207</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043012293529921</v>
+        <v>1.045815370314615</v>
       </c>
       <c r="J22">
-        <v>1.023454773792225</v>
+        <v>1.03345379547869</v>
       </c>
       <c r="K22">
-        <v>1.032171248223828</v>
+        <v>1.03743688571707</v>
       </c>
       <c r="L22">
-        <v>1.01704164834143</v>
+        <v>1.032798707378555</v>
       </c>
       <c r="M22">
-        <v>1.033724722817311</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.038364177524768</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.03893506188745</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.037609646254983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.994088271205212</v>
+        <v>1.004727323727672</v>
       </c>
       <c r="D23">
-        <v>1.01822507847527</v>
+        <v>1.023548245077361</v>
       </c>
       <c r="E23">
-        <v>1.002834118063214</v>
+        <v>1.019056981106664</v>
       </c>
       <c r="F23">
-        <v>1.020014980158894</v>
+        <v>1.024649295644467</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043549111781324</v>
+        <v>1.046368723493814</v>
       </c>
       <c r="J23">
-        <v>1.024424343024351</v>
+        <v>1.034607411511634</v>
       </c>
       <c r="K23">
-        <v>1.03313927944251</v>
+        <v>1.038364852893263</v>
       </c>
       <c r="L23">
-        <v>1.018038123732858</v>
+        <v>1.033955842659696</v>
       </c>
       <c r="M23">
-        <v>1.034896217591301</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.039445881814456</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.039791159659793</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.038256163754731</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,72 +1599,102 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.000687848423196</v>
+        <v>1.01202569038783</v>
       </c>
       <c r="D24">
-        <v>1.023236709059967</v>
+        <v>1.028414979909213</v>
       </c>
       <c r="E24">
-        <v>1.007994050969143</v>
+        <v>1.024830483166581</v>
       </c>
       <c r="F24">
-        <v>1.02582642990899</v>
+        <v>1.030117346198942</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045603596579904</v>
+        <v>1.048500110713191</v>
       </c>
       <c r="J24">
-        <v>1.028159445871589</v>
+        <v>1.039068552622629</v>
       </c>
       <c r="K24">
-        <v>1.036867690693793</v>
+        <v>1.041960818656463</v>
       </c>
       <c r="L24">
-        <v>1.021882221553215</v>
+        <v>1.038435141505154</v>
       </c>
       <c r="M24">
-        <v>1.039414692276331</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.043635434241538</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.043106905154026</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.04079119579703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>1.00807531690274</v>
+        <v>1.02016792529404</v>
       </c>
       <c r="D25">
-        <v>1.028866698348524</v>
+        <v>1.033865961500417</v>
       </c>
       <c r="E25">
-        <v>1.013801592287429</v>
+        <v>1.03130369526988</v>
       </c>
       <c r="F25">
-        <v>1.032359856667245</v>
+        <v>1.036263919369511</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047871464289024</v>
+        <v>1.050841226198909</v>
       </c>
       <c r="J25">
-        <v>1.032333937450299</v>
+        <v>1.044035112384145</v>
       </c>
       <c r="K25">
-        <v>1.041032833543962</v>
+        <v>1.04596035289631</v>
       </c>
       <c r="L25">
-        <v>1.026189368768801</v>
+        <v>1.043434747402008</v>
       </c>
       <c r="M25">
-        <v>1.04447576940406</v>
+        <v>1.04832420862202</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.046817732925982</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.043616186543745</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_5/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_5/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026375982043843</v>
+        <v>1.024567438538387</v>
       </c>
       <c r="D2">
-        <v>1.038015190688637</v>
+        <v>1.035704515991881</v>
       </c>
       <c r="E2">
-        <v>1.036257858371825</v>
+        <v>1.034865178232513</v>
       </c>
       <c r="F2">
-        <v>1.04098741185841</v>
+        <v>1.039849202597243</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052576523495346</v>
+        <v>1.0515184953724</v>
       </c>
       <c r="J2">
-        <v>1.047795428166579</v>
+        <v>1.046037374624201</v>
       </c>
       <c r="K2">
-        <v>1.048969149293064</v>
+        <v>1.046687869366632</v>
       </c>
       <c r="L2">
-        <v>1.047234157604614</v>
+        <v>1.045859249680871</v>
       </c>
       <c r="M2">
-        <v>1.051903799368391</v>
+        <v>1.050779946254492</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.049650709026861</v>
+        <v>1.048761265214133</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.045695684405369</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.044091345718576</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024221731790704</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030782162242031</v>
+        <v>1.028765270026403</v>
       </c>
       <c r="D3">
-        <v>1.040980089096247</v>
+        <v>1.038410801422718</v>
       </c>
       <c r="E3">
-        <v>1.039789662233877</v>
+        <v>1.038218461881134</v>
       </c>
       <c r="F3">
-        <v>1.04435762213491</v>
+        <v>1.043078383432452</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.053800554783865</v>
+        <v>1.052602248986193</v>
       </c>
       <c r="J3">
-        <v>1.050467454159978</v>
+        <v>1.048501339828019</v>
       </c>
       <c r="K3">
-        <v>1.051114156322378</v>
+        <v>1.048574711114421</v>
       </c>
       <c r="L3">
-        <v>1.049937533690553</v>
+        <v>1.048384612959135</v>
       </c>
       <c r="M3">
-        <v>1.054452734895757</v>
+        <v>1.053188213519115</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.051667992682193</v>
+        <v>1.050667223324191</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.047209724845622</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.045422566635319</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024643833402111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033577786040664</v>
+        <v>1.031430578284872</v>
       </c>
       <c r="D4">
-        <v>1.042864852730752</v>
+        <v>1.040132869859836</v>
       </c>
       <c r="E4">
-        <v>1.042036181527014</v>
+        <v>1.04035336273067</v>
       </c>
       <c r="F4">
-        <v>1.046504428243562</v>
+        <v>1.045137055266864</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054568665881118</v>
+        <v>1.053282197196297</v>
       </c>
       <c r="J4">
-        <v>1.052159894388394</v>
+        <v>1.050063081426249</v>
       </c>
       <c r="K4">
-        <v>1.05247206264274</v>
+        <v>1.049769903034609</v>
       </c>
       <c r="L4">
-        <v>1.05165241721769</v>
+        <v>1.049987981794685</v>
       </c>
       <c r="M4">
-        <v>1.056072203903911</v>
+        <v>1.054719606704679</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.052949673265855</v>
+        <v>1.051879200588975</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.048170748979914</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.046268623056799</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024908715189459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03474535191371</v>
+        <v>1.032544021176286</v>
       </c>
       <c r="D5">
-        <v>1.043655324309441</v>
+        <v>1.04085564029106</v>
       </c>
       <c r="E5">
-        <v>1.042976213160285</v>
+        <v>1.041247005572198</v>
       </c>
       <c r="F5">
-        <v>1.047402673476783</v>
+        <v>1.045998688786056</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054889545638618</v>
+        <v>1.053566330436405</v>
       </c>
       <c r="J5">
-        <v>1.052867901987765</v>
+        <v>1.050716690587982</v>
       </c>
       <c r="K5">
-        <v>1.053041815932617</v>
+        <v>1.050271882498195</v>
       </c>
       <c r="L5">
-        <v>1.052369903340606</v>
+        <v>1.050659077196834</v>
       </c>
       <c r="M5">
-        <v>1.056749648522252</v>
+        <v>1.05536042858643</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.053485816015041</v>
+        <v>1.052386360127897</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.04858069316645</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.046631361914664</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025020103394488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034946890215421</v>
+        <v>1.032736086919833</v>
       </c>
       <c r="D6">
-        <v>1.043794847124081</v>
+        <v>1.040983402338225</v>
       </c>
       <c r="E6">
-        <v>1.04313912446853</v>
+        <v>1.041401742328569</v>
       </c>
       <c r="F6">
-        <v>1.047557416822593</v>
+        <v>1.046146990967272</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.054947448059514</v>
+        <v>1.053617749694813</v>
       </c>
       <c r="J6">
-        <v>1.052992386990941</v>
+        <v>1.050831659245624</v>
       </c>
       <c r="K6">
-        <v>1.053144250850474</v>
+        <v>1.05036254491177</v>
       </c>
       <c r="L6">
-        <v>1.052495446754147</v>
+        <v>1.050776447351272</v>
       </c>
       <c r="M6">
-        <v>1.056867326083297</v>
+        <v>1.055471664327634</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.053578948269837</v>
+        <v>1.052474394332884</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.048661765843548</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.046704984749815</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025041089789068</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03361029342016</v>
+        <v>1.031461134758495</v>
       </c>
       <c r="D7">
-        <v>1.042894993027755</v>
+        <v>1.040160850801275</v>
       </c>
       <c r="E7">
-        <v>1.042063913642941</v>
+        <v>1.040379265081186</v>
       </c>
       <c r="F7">
-        <v>1.046528301090754</v>
+        <v>1.045159511753476</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.054584730393033</v>
+        <v>1.053296808645145</v>
       </c>
       <c r="J7">
-        <v>1.05218584994218</v>
+        <v>1.050087109443409</v>
       </c>
       <c r="K7">
-        <v>1.052499037819991</v>
+        <v>1.04979473046326</v>
       </c>
       <c r="L7">
-        <v>1.0516770068187</v>
+        <v>1.050010754337523</v>
       </c>
       <c r="M7">
-        <v>1.05609299510942</v>
+        <v>1.054738991140403</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.052966127832941</v>
+        <v>1.051894541832743</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.048209708487706</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.046308074820542</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024916680448223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027898239292128</v>
+        <v>1.02601664895093</v>
       </c>
       <c r="D8">
-        <v>1.039048943428255</v>
+        <v>1.036648189776985</v>
       </c>
       <c r="E8">
-        <v>1.037478963600356</v>
+        <v>1.036023470259432</v>
       </c>
       <c r="F8">
-        <v>1.042148667251623</v>
+        <v>1.040960865267689</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.053010145270465</v>
+        <v>1.051902848889235</v>
       </c>
       <c r="J8">
-        <v>1.048727003432875</v>
+        <v>1.046896169496937</v>
       </c>
       <c r="K8">
-        <v>1.049724727505187</v>
+        <v>1.047353606650293</v>
       </c>
       <c r="L8">
-        <v>1.04817410681478</v>
+        <v>1.046736626162485</v>
       </c>
       <c r="M8">
-        <v>1.052786442135908</v>
+        <v>1.051613171856657</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.050349252548145</v>
+        <v>1.049420699673797</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.046252610569486</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.044587027582079</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024374303675281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.017359395482408</v>
+        <v>1.01598852303813</v>
       </c>
       <c r="D9">
-        <v>1.031970555799119</v>
+        <v>1.030197192221731</v>
       </c>
       <c r="E9">
-        <v>1.029063939373579</v>
+        <v>1.028046181569984</v>
       </c>
       <c r="F9">
-        <v>1.034139400500593</v>
+        <v>1.033297708039579</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050027317525968</v>
+        <v>1.049261055916974</v>
       </c>
       <c r="J9">
-        <v>1.042313697125254</v>
+        <v>1.040989049255638</v>
       </c>
       <c r="K9">
-        <v>1.044565386614374</v>
+        <v>1.042818628643978</v>
       </c>
       <c r="L9">
-        <v>1.041702439034393</v>
+        <v>1.040700046317536</v>
       </c>
       <c r="M9">
-        <v>1.046701850080559</v>
+        <v>1.045872703707744</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.045533754922713</v>
+        <v>1.044877545408754</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.042601522272537</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.041377122838666</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023343009321131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.010125145505976</v>
+        <v>1.009111467199583</v>
       </c>
       <c r="D10">
-        <v>1.027152214598277</v>
+        <v>1.025812344248822</v>
       </c>
       <c r="E10">
-        <v>1.023368637065993</v>
+        <v>1.022655450551637</v>
       </c>
       <c r="F10">
-        <v>1.028780724254717</v>
+        <v>1.028180606965113</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047969721240083</v>
+        <v>1.047437681088674</v>
       </c>
       <c r="J10">
-        <v>1.037942723155885</v>
+        <v>1.036968188969639</v>
       </c>
       <c r="K10">
-        <v>1.041047942824028</v>
+        <v>1.039730680728427</v>
       </c>
       <c r="L10">
-        <v>1.037328404185718</v>
+        <v>1.036627357247232</v>
       </c>
       <c r="M10">
-        <v>1.0426490760935</v>
+        <v>1.042059034185056</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.042377467365437</v>
+        <v>1.041910518672112</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.040131190059018</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.039212159786453</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022637418910503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.007892187741103</v>
+        <v>1.006941469077762</v>
       </c>
       <c r="D11">
-        <v>1.025798477920841</v>
+        <v>1.024544757524307</v>
       </c>
       <c r="E11">
-        <v>1.021997468284176</v>
+        <v>1.021327731100841</v>
       </c>
       <c r="F11">
-        <v>1.027860023691353</v>
+        <v>1.027297399736998</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047577162472079</v>
+        <v>1.047077752911317</v>
       </c>
       <c r="J11">
-        <v>1.036940288657092</v>
+        <v>1.036028299100468</v>
       </c>
       <c r="K11">
-        <v>1.040249738161883</v>
+        <v>1.039018179325588</v>
       </c>
       <c r="L11">
-        <v>1.036516134982882</v>
+        <v>1.035858342307274</v>
       </c>
       <c r="M11">
-        <v>1.04227499505459</v>
+        <v>1.041722256100354</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.042515610669101</v>
+        <v>1.042078400915252</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.039599470042537</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038744264944452</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022545256699083</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.007425656488227</v>
+        <v>1.006459266173917</v>
       </c>
       <c r="D12">
-        <v>1.025583168021617</v>
+        <v>1.024318727874425</v>
       </c>
       <c r="E12">
-        <v>1.021915425168935</v>
+        <v>1.021224238563182</v>
       </c>
       <c r="F12">
-        <v>1.028049239001211</v>
+        <v>1.027471956657454</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047629662208677</v>
+        <v>1.047113460722347</v>
       </c>
       <c r="J12">
-        <v>1.036919040425829</v>
+        <v>1.03599275185369</v>
       </c>
       <c r="K12">
-        <v>1.040236117002383</v>
+        <v>1.038994393384373</v>
       </c>
       <c r="L12">
-        <v>1.036634469181505</v>
+        <v>1.035955807346958</v>
       </c>
       <c r="M12">
-        <v>1.042658092040916</v>
+        <v>1.042091107474678</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.043143553713704</v>
+        <v>1.042695226362785</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.039589839554392</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.038727448022798</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022594008793676</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.008308489222</v>
+        <v>1.007263216332471</v>
       </c>
       <c r="D13">
-        <v>1.026251794881995</v>
+        <v>1.024899695715363</v>
       </c>
       <c r="E13">
-        <v>1.022839653846113</v>
+        <v>1.022074311620494</v>
       </c>
       <c r="F13">
-        <v>1.029131767956658</v>
+        <v>1.028497735650539</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.048045842805696</v>
+        <v>1.047472596597739</v>
       </c>
       <c r="J13">
-        <v>1.037673983032127</v>
+        <v>1.0366718241258</v>
       </c>
       <c r="K13">
-        <v>1.040850355080581</v>
+        <v>1.039522427956837</v>
       </c>
       <c r="L13">
-        <v>1.037499373988163</v>
+        <v>1.036747822806263</v>
       </c>
       <c r="M13">
-        <v>1.043679116335567</v>
+        <v>1.043056326477952</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.044226330777623</v>
+        <v>1.043733999604364</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.040021644419602</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.039098054384562</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022763837853753</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.009534643373999</v>
+        <v>1.008406283712985</v>
       </c>
       <c r="D14">
-        <v>1.027119452188892</v>
+        <v>1.025671814459421</v>
       </c>
       <c r="E14">
-        <v>1.02393787066045</v>
+        <v>1.023097489351389</v>
       </c>
       <c r="F14">
-        <v>1.030289519350063</v>
+        <v>1.029597288767894</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.048500747431337</v>
+        <v>1.047869790001858</v>
       </c>
       <c r="J14">
-        <v>1.038551175357932</v>
+        <v>1.03746864594633</v>
       </c>
       <c r="K14">
-        <v>1.0415637609093</v>
+        <v>1.040141666717241</v>
       </c>
       <c r="L14">
-        <v>1.038438441675722</v>
+        <v>1.037612997285026</v>
       </c>
       <c r="M14">
-        <v>1.044678217009241</v>
+        <v>1.043998092057513</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.045188719882259</v>
+        <v>1.044651135792674</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.040527454438809</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.039537417361942</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022937523820685</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.010136551472989</v>
+        <v>1.00897358859243</v>
       </c>
       <c r="D15">
-        <v>1.027532894111767</v>
+        <v>1.026044474097212</v>
       </c>
       <c r="E15">
-        <v>1.024438142996268</v>
+        <v>1.02356744010148</v>
       </c>
       <c r="F15">
-        <v>1.030786544311699</v>
+        <v>1.030070555178392</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.048697139219809</v>
+        <v>1.048042856627946</v>
       </c>
       <c r="J15">
-        <v>1.038945058482266</v>
+        <v>1.037828902302594</v>
       </c>
       <c r="K15">
-        <v>1.041884459866448</v>
+        <v>1.04042209821827</v>
       </c>
       <c r="L15">
-        <v>1.038843999935237</v>
+        <v>1.037988648505654</v>
       </c>
       <c r="M15">
-        <v>1.045081486205451</v>
+        <v>1.044377917829673</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.04554485648354</v>
+        <v>1.044988756736385</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.040760025009523</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.039742088411016</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023009372846034</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.013026840483995</v>
+        <v>1.011728246077486</v>
       </c>
       <c r="D16">
-        <v>1.029440927004489</v>
+        <v>1.027786304270774</v>
       </c>
       <c r="E16">
-        <v>1.026671804418427</v>
+        <v>1.025687630555541</v>
       </c>
       <c r="F16">
-        <v>1.032876469275187</v>
+        <v>1.03207016608889</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.049498996382438</v>
+        <v>1.048757401648159</v>
       </c>
       <c r="J16">
-        <v>1.040657814086503</v>
+        <v>1.039408822428406</v>
       </c>
       <c r="K16">
-        <v>1.043263033439778</v>
+        <v>1.041636099992281</v>
       </c>
       <c r="L16">
-        <v>1.040540315606002</v>
+        <v>1.039572712301488</v>
       </c>
       <c r="M16">
-        <v>1.046641448336056</v>
+        <v>1.045848508659131</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.046739301395468</v>
+        <v>1.046112544615248</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.041737851611189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.04060385470124</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023280893304864</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.014604822434979</v>
+        <v>1.013245568029902</v>
       </c>
       <c r="D17">
-        <v>1.03045355552196</v>
+        <v>1.028721322744322</v>
       </c>
       <c r="E17">
-        <v>1.027812971597845</v>
+        <v>1.026780759236919</v>
       </c>
       <c r="F17">
-        <v>1.033870295771666</v>
+        <v>1.033024958516582</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.049874951682132</v>
+        <v>1.049096376220511</v>
       </c>
       <c r="J17">
-        <v>1.041513101400278</v>
+        <v>1.040204085167106</v>
       </c>
       <c r="K17">
-        <v>1.043947892522531</v>
+        <v>1.042243830873955</v>
       </c>
       <c r="L17">
-        <v>1.041350300927797</v>
+        <v>1.040334971682016</v>
       </c>
       <c r="M17">
-        <v>1.047309421724525</v>
+        <v>1.046477700625043</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.047138858510793</v>
+        <v>1.046481382960363</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.042224631397582</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.04103634973956</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023397815254555</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.015173061291428</v>
+        <v>1.0138140533018</v>
       </c>
       <c r="D18">
-        <v>1.030760784063578</v>
+        <v>1.029022561579568</v>
       </c>
       <c r="E18">
-        <v>1.028074652795462</v>
+        <v>1.027048346099458</v>
       </c>
       <c r="F18">
-        <v>1.033945845262033</v>
+        <v>1.033103477943792</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.049900630519408</v>
+        <v>1.049126834225612</v>
       </c>
       <c r="J18">
-        <v>1.041674854683148</v>
+        <v>1.040365152164825</v>
       </c>
       <c r="K18">
-        <v>1.044068861748277</v>
+        <v>1.042358451423099</v>
       </c>
       <c r="L18">
-        <v>1.04142576034085</v>
+        <v>1.040415970584635</v>
       </c>
       <c r="M18">
-        <v>1.047203271653281</v>
+        <v>1.046374261395444</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.046818510454755</v>
+        <v>1.046163042572999</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.042298615702654</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.041104704921654</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023383249066758</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.014859986674575</v>
+        <v>1.013551893253933</v>
       </c>
       <c r="D19">
-        <v>1.030467443712143</v>
+        <v>1.028783660384574</v>
       </c>
       <c r="E19">
-        <v>1.02756481146583</v>
+        <v>1.026588865828338</v>
       </c>
       <c r="F19">
-        <v>1.033201981567772</v>
+        <v>1.032397269176422</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.0496358516495</v>
+        <v>1.04890125016972</v>
       </c>
       <c r="J19">
-        <v>1.041241704057967</v>
+        <v>1.039980830017852</v>
       </c>
       <c r="K19">
-        <v>1.043718367919386</v>
+        <v>1.042061400052087</v>
       </c>
       <c r="L19">
-        <v>1.040862032484209</v>
+        <v>1.03990172855034</v>
       </c>
       <c r="M19">
-        <v>1.046409594708171</v>
+        <v>1.045617597273678</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624639</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.045867304998105</v>
+        <v>1.045240899457609</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.042057155050787</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.040901659100953</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023263700687658</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.012051940970465</v>
+        <v>1.010939951691592</v>
       </c>
       <c r="D20">
-        <v>1.028455454908164</v>
+        <v>1.026997785849544</v>
       </c>
       <c r="E20">
-        <v>1.024890550453297</v>
+        <v>1.02409298060485</v>
       </c>
       <c r="F20">
-        <v>1.030207211618457</v>
+        <v>1.029540258072552</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.048540867502612</v>
+        <v>1.047944108399218</v>
       </c>
       <c r="J20">
-        <v>1.039126057424546</v>
+        <v>1.03805557419061</v>
       </c>
       <c r="K20">
-        <v>1.042015746581682</v>
+        <v>1.040581961499374</v>
       </c>
       <c r="L20">
-        <v>1.038509407781986</v>
+        <v>1.037725012559732</v>
       </c>
       <c r="M20">
-        <v>1.043738915556899</v>
+        <v>1.043082831600037</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.043229456785161</v>
+        <v>1.042710237570055</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.040857255024171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039859953947782</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022839891122511</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.006419753720616</v>
+        <v>1.00559990796058</v>
       </c>
       <c r="D21">
-        <v>1.024686734093945</v>
+        <v>1.023578854215812</v>
       </c>
       <c r="E21">
-        <v>1.020396529016093</v>
+        <v>1.019849614796847</v>
       </c>
       <c r="F21">
-        <v>1.025912939573142</v>
+        <v>1.025444416294351</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.046875768230941</v>
+        <v>1.046470624419389</v>
       </c>
       <c r="J21">
-        <v>1.035651498354102</v>
+        <v>1.034865350888643</v>
       </c>
       <c r="K21">
-        <v>1.039215031101971</v>
+        <v>1.038126876088662</v>
       </c>
       <c r="L21">
-        <v>1.035001519041324</v>
+        <v>1.034464441892313</v>
       </c>
       <c r="M21">
-        <v>1.04041946946628</v>
+        <v>1.039959255254006</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.040561689355252</v>
+        <v>1.040197460601829</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.038880288245334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.038127698437489</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022260169200142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.002837646421703</v>
+        <v>1.002205132677749</v>
       </c>
       <c r="D22">
-        <v>1.022294516835955</v>
+        <v>1.021409222795095</v>
       </c>
       <c r="E22">
-        <v>1.017567411964716</v>
+        <v>1.017180685925044</v>
       </c>
       <c r="F22">
-        <v>1.023239456308207</v>
+        <v>1.022898002028452</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045815370314615</v>
+        <v>1.045531859507574</v>
       </c>
       <c r="J22">
-        <v>1.03345379547869</v>
+        <v>1.032848844300079</v>
       </c>
       <c r="K22">
-        <v>1.03743688571707</v>
+        <v>1.036568164085733</v>
       </c>
       <c r="L22">
-        <v>1.032798707378555</v>
+        <v>1.032419304262477</v>
       </c>
       <c r="M22">
-        <v>1.038364177524768</v>
+        <v>1.038029095326072</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.03893506188745</v>
+        <v>1.038669866167298</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.037609646254983</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037010905001827</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021890866408806</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.004727323727672</v>
+        <v>1.003996429629924</v>
       </c>
       <c r="D23">
-        <v>1.023548245077361</v>
+        <v>1.022545898313409</v>
       </c>
       <c r="E23">
-        <v>1.019056981106664</v>
+        <v>1.018586375386976</v>
       </c>
       <c r="F23">
-        <v>1.024649295644467</v>
+        <v>1.024241248936697</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046368723493814</v>
+        <v>1.046021632114435</v>
       </c>
       <c r="J23">
-        <v>1.034607411511634</v>
+        <v>1.033907402919528</v>
       </c>
       <c r="K23">
-        <v>1.038364852893263</v>
+        <v>1.037380781738089</v>
       </c>
       <c r="L23">
-        <v>1.033955842659696</v>
+        <v>1.033493910405872</v>
       </c>
       <c r="M23">
-        <v>1.039445881814456</v>
+        <v>1.039045248548885</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.039791159659793</v>
+        <v>1.039474084909611</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038256163754731</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.037574915739424</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022081285351309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,102 +1803,120 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.01202569038783</v>
+        <v>1.01092047517579</v>
       </c>
       <c r="D24">
-        <v>1.028414979909213</v>
+        <v>1.026964090903925</v>
       </c>
       <c r="E24">
-        <v>1.024830483166581</v>
+        <v>1.024039875964366</v>
       </c>
       <c r="F24">
-        <v>1.030117346198942</v>
+        <v>1.029455578444502</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.048500110713191</v>
+        <v>1.047908780664284</v>
       </c>
       <c r="J24">
-        <v>1.039068552622629</v>
+        <v>1.038004535471523</v>
       </c>
       <c r="K24">
-        <v>1.041960818656463</v>
+        <v>1.040533674331638</v>
       </c>
       <c r="L24">
-        <v>1.038435141505154</v>
+        <v>1.037657579051322</v>
       </c>
       <c r="M24">
-        <v>1.043635434241538</v>
+        <v>1.042984440120709</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.043106905154026</v>
+        <v>1.042591688627332</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.04079119579703</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.039795906441195</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022818572943693</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.02016792529404</v>
+        <v>1.018657846833429</v>
       </c>
       <c r="D25">
-        <v>1.033865961500417</v>
+        <v>1.031923214313617</v>
       </c>
       <c r="E25">
-        <v>1.03130369526988</v>
+        <v>1.030166347025598</v>
       </c>
       <c r="F25">
-        <v>1.036263919369511</v>
+        <v>1.035327663596166</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.050841226198909</v>
+        <v>1.049982277145883</v>
       </c>
       <c r="J25">
-        <v>1.044035112384145</v>
+        <v>1.042573211436576</v>
       </c>
       <c r="K25">
-        <v>1.04596035289631</v>
+        <v>1.04404538128085</v>
       </c>
       <c r="L25">
-        <v>1.043434747402008</v>
+        <v>1.042313746284208</v>
       </c>
       <c r="M25">
-        <v>1.04832420862202</v>
+        <v>1.047401243871712</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.046817732925982</v>
+        <v>1.0460872741765</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.043616186543745</v>
+        <v>1.042275666411345</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023628262172395</v>
       </c>
     </row>
   </sheetData>
